--- a/02_programme_task/xlsx_out/06.Joshua.xlsx
+++ b/02_programme_task/xlsx_out/06.Joshua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6751 +453,7951 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>After the death of Moses the servant of the Lord , the Lord said to Joshua the son of Nun, Moses assistant, 2</t>
+          <t>Joshua God Commissions Joshua</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Joshua 1:2</t>
+          <t>Joshua 1:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moses my servant is dead. Now therefore arise, go over this Jordan, you and all this people, into the land that I am giving to them, to the people of Israel. 3</t>
+          <t>After the death of Moses the a servant of the Lord, the Lord said to Joshua the son of Nun, Moses b assistant,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joshua 1:7</t>
+          <t>Joshua 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Only be strong and very courageous, being careful to do according to all the law that Moses my servant commanded you. Do not turn from it to the right hand or to the left, that you may have good succes16's wherever you go. 8</t>
+          <t>Moses my servant is dead. Now therefore arise, go over this Jordan, you and all this people, into the land that I am giving to them, to the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Joshua 1:8</t>
+          <t>Joshua 1:3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This Book of the Law shall not depart from your mouth, but you shall meditate on it day and night, so that you may be careful to do according to all that is written in it. For then you will make your way prosperous, and then you will have good success. 9</t>
+          <t>c Every place that the sole of your foot will tread upon I have given to you, just as I promised to Moses.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joshua 1:9</t>
+          <t>Joshua 1:4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Have I not commanded you Be strong and courageous. Do not be frightened, and do not be dismayed, for the Lord your God is with you wherever you go. Joshua Assumes Command</t>
+          <t>d From the wilderness and this Lebanon as far as the great river, the river Euphrates, all the land of the Hittites to the Great Sea toward the going down of the sun shall be your territory.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Joshua 1:10</t>
+          <t>Joshua 1:5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>And Joshua commanded the officers of the people,</t>
+          <t>e No man shall be able to stand before you all the days of your life. Just f as I was with Moses, so g I will be with you. h I will not leave you or forsake you.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Joshua 1:11</t>
+          <t>Joshua 1:6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pass through the midst of the camp and command the people, Prepare your provisions, for within three days you are to pass over this Jordan to go in to take possession of the land that the Lord your God is giving you to possess.</t>
+          <t>i Be strong and courageous, for you shall cause this people to inherit the land that I swore to their fathers to give them.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joshua 1:12</t>
+          <t>Joshua 1:7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>And to the Reubenites, the Gadites, and the half- tribe of Manasseh Joshua said,</t>
+          <t>Only be strong and j very courageous, being careful to do according to all the law k that Moses my servant commanded you. l Do not turn from it to the right hand or to the left, that you may have good success wherever you go.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Joshua 1:13</t>
+          <t>Joshua 1:8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Remember the word that Moses the servant of the Lord commanded you, saying, The Lord your God is providing you a place of rest and will give you this land.</t>
+          <t>This Book of the Law shall not depart from your mouth, but m you shall meditate on it day and night, so that you may be careful to do according to all that is written in it. For then you will make your way prosperous, and then you will have good success.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Joshua 1:14</t>
+          <t>Joshua 1:9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Your wives, your little ones, and your livestock shall remain in the land that Moses gave you beyond the Jordan, but all the men of valor among you shall pass over armed before your brothers and shall help them,</t>
+          <t>Have I not commanded you? n Be strong and courageous. o Do not be frightened, and do not be dismayed, for the Lord your God is with you wherever you go. Joshua Assumes Command</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joshua 1:16</t>
+          <t>Joshua 1:10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>And they answered Joshua, All that you have commanded us we will do, and wherever you send us we will go.</t>
+          <t>And Joshua commanded the p officers of the people,</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joshua 1:17</t>
+          <t>Joshua 1:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Just as we obeyed Moses in all things, so we will obey you. Only may the Lord your God be with you, as he was with Moses!</t>
+          <t>Pass through the midst of the camp and command the people, Prepare your provisions, for q within three days r you are to pass over this Jordan to go in to take possession of the land that the Lord your God is giving you to possess.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joshua 1:18</t>
+          <t>Joshua 1:12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Whoever rebels against your commandment and disobeys your words, whatever you command him, shall be put to death. Only be strong and courageous. Rahab Hides the Spies 2</t>
+          <t>And to the Reubenites, the Gadites, and the half-tribe of Manasseh Joshua said,</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Joshua 2:1</t>
+          <t>Joshua 1:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>And Joshua the son of Nun sen16 t two men secretly from Shittim as spies, saying, Go, view the land, especially Jericho. And they went and came into the house of a prostitute whose name was Rahab and lodged there. 2</t>
+          <t>Remember the word that s Moses the servant of the Lord commanded you, saying, The Lord your God is providing you a place of rest and will give you this land.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joshua 2:2</t>
+          <t>Joshua 1:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>And it was told to the king of Jericho, Behold, men of Israel have come here tonight to search out the land. 3</t>
+          <t>Your wives, your little ones, and your livestock shall remain in the land that Moses gave you beyond the Jordan, but all the men of valor among you shall pass over armed before your brothers and shall help them,</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Joshua 2:3</t>
+          <t>Joshua 1:15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Then the king of Jericho sent to Rahab, saying, Bring out the men who have come to you, who entered your house, for they have come to search out all the land. 4</t>
+          <t>t until the Lord gives rest to your brothers as he has to you, and they also take possession of the land that the Lord your God is giving them. u Then you shall return to the land of your possession and shall possess it, the land that Moses the servant of the Lord gave you beyond the Jordan toward the sunrise.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Joshua 2:4</t>
+          <t>Joshua 1:16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>But the woman had taken the two men and hidden them. And she said, True, the men came to me, but I did not know where they were from. 5</t>
+          <t>And they answered Joshua, All that you have commanded us we will do, and wherever you send us we will go.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Joshua 2:5</t>
+          <t>Joshua 1:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>And when the gate was about to be closed at dark, the men went out. I o not know where the men went. Pursue them quickly, for you will overtake them. 6</t>
+          <t>Just as we obeyed Moses in all things, so we will obey you. Only may the Lord your God v be with you, as he was with Moses!</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Joshua 2:6</t>
+          <t>Joshua 1:18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>But she had brought them up to the roof and hid them with the stalks of flax that she had laid in order on the roof. 7</t>
+          <t>Whoever rebels against your commandment and disobeys your words, whatever you command him, shall be put to death. w Only be strong and courageous. Rahab Hides the Spies</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joshua 2:7</t>
+          <t>Joshua 2:1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>So the men pursued after them on the way to the Jordan as far as the fords. And the gate was shut as soon as the pursuers had gone out. 8</t>
+          <t>And Joshua the son of Nun x sen t two men secretly from Shittim as spies, saying, Go, view the land, especially Jericho. And they went and came into the house of y a prostitute whose name was z Rahab and lodged there.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joshua 2:8</t>
+          <t>Joshua 2:2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Before the me n lay down, she came up to them on the roof 9</t>
+          <t>And it was told to the king of Jericho, Behold, men of Israel have come here tonight to search out the land.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Joshua 2:9</t>
+          <t>Joshua 2:3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>and said to the men, I know that the Lord has given you the land, and that the fear of you has fallen upon us, and that all the in173 hab173 i173 tants of the land melt away before you.</t>
+          <t>Then the king of Jericho sent to Rahab, saying, Bring out the men who have come to you, who entered your house, for they have come to search out all the land.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joshua 2:10</t>
+          <t>Joshua 2:4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>For we have heard how the Lord dried up the water of the Red Sea before you when you came out of Egypt, and what you did to the two kings of the Amorites who were beyond the Jordan, to Sihon and Og, whom you devoted to destruction. 1</t>
+          <t>But the woman had taken the two men and hidden them. And she said, True, the men came to me, but I did not know where they were from.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Joshua 2:11</t>
+          <t>Joshua 2:5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>And as soon as we heard it, our hearts melted, and there was no spirit left in any man because of you, for the Lord your God, he is God in the heavens above and on the earth beneath.</t>
+          <t>And when the gate was about to be closed at dark, the men went out. I do not know where the men went. Pursue them quickly, for you will overtake them.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Joshua 2:12</t>
+          <t>Joshua 2:6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Now then, please swear to me by the Lord that, as I have dealt kindly with you, you also will deal kindly with my father's house, and give me a sure sign</t>
+          <t>But she had brought them up to the roof and hid them with the stalks of flax that she had laid in order on the roof.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Joshua 2:13</t>
+          <t>Joshua 2:7</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>that you will save alive my father and mother, my brothers and sisters, and all who belong to them, and deliver our lives from death.</t>
+          <t>So the men pursued after them on the way to the Jordan a as far as the fords. And the gate was shut as soon as the pursuers had gone out.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Joshua 2:14</t>
+          <t>Joshua 2:8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>And the men said to her, Our life for yours even to death! If you do not tell this business of ours, then when the Lord gives us the land we will deal kindly and faithfully with you.</t>
+          <t>Before the me n lay down, she came up to them on the roof</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Joshua 2:15</t>
+          <t>Joshua 2:9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Then she let them down by a rope through the window, for her house was built into the city wall, so that she lived in the wall.</t>
+          <t>and said to the men, I know that the Lord has given you the land, b and that the fear of you has fallen upon us, and that all the in?hab?i?tants of the land c melt away before you.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Joshua 2:16</t>
+          <t>Joshua 2:10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>And she sai16 d to them, Go into the hills, or the pursuers will encounter you, and hide there three days until the pursuers have returned. Then afterward you may go your way.</t>
+          <t>For we have heard how the Lord d dried up the water of the Red Sea before you when you came out of Egypt, and e what you did to the two kings of the Amorites who were beyond the Jordan, to f Sihon and Og, whom you devoted to destruction.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Joshua 2:17</t>
+          <t>Joshua 2:11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The men said to her, We will be guiltless with respect to this oath of yours that you have made us swear.</t>
+          <t>And g as soon as we heard it, h our hearts melted, and there was no spirit left in any man because of you, for i the Lord your God, he is God in the heavens above and on the earth beneath.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Joshua 2:19</t>
+          <t>Joshua 2:12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Then if anyone goes out of the doors of your house into the street, his blood shall be on his own head, and we shall be guiltless. But if a hand is laid on anyone who is with you in the house, his blood shall be on our head.</t>
+          <t>Now then, please swear to me by the Lord that, as I have dealt kindly with you, you also will deal kindly with my father s house, and j give me a sure sign</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Joshua 2:20</t>
+          <t>Joshua 2:13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>But if you tell this business of ours, then we shall be guiltless with respect to your oath that you have made us swear.</t>
+          <t>that you will save alive my father and mother, my brothers and sisters, and all who belong to them, and deliver our lives from death.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Joshua 2:21</t>
+          <t>Joshua 2:14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>And she said, According to your words, so be it. Then she sent them away, and they departed. And she tied the scarlet cord in the window.</t>
+          <t>And the men said to her, Our life for yours even to death! If you do not tell this business of ours, then when the Lord gives us the land k we will deal kindly and faithfully with you.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Joshua 2:22</t>
+          <t>Joshua 2:15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>They departed and went into the hills and remained there three days until the pursuers returned, and the pursuers searched all along the way and found nothing.</t>
+          <t>Then she l let them down by a rope through the window, for her house was built into the city wall, so that she lived in the wall.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Joshua 2:23</t>
+          <t>Joshua 2:16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Then the two men returned. They came down from the hills and passed over and came to Joshua the son of Nun, and they told him all that had happened to them.</t>
+          <t>And she sai d to them, Go into the hills, or the pursuers will encounter you, and hide there three days until the pursuers have returned. Then afterward you may go your way.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Joshua 2:24</t>
+          <t>Joshua 2:17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And they said to Joshua, Truly the Lord has given all the land into our hands. And also, all the in173 hab173 i173 tants of the land melt away because of us. Israel Crosses the Jordan 3</t>
+          <t>The men said to her, We will be guiltless with respect to this oath of yours that you have made us swear.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Joshua 3:1</t>
+          <t>Joshua 2:18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Then Joshua rose early in the morning and they set out from Shittim. And they came to the Jordan, he and all the people of Israel, and lodged there before they passed over. 2</t>
+          <t>m Behold, when we come into the land, you shall tie this scarlet cord in the window through which you let us down, n and you shall gather into your house your father and mother, your brothers, and all your father s household.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Joshua 3:3</t>
+          <t>Joshua 2:19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>and commanded the people, As soon as you see the ark of the cov173 enant of the Lord your God being carried by the Levitical priests, then you shall set out from your place and follow it. 4</t>
+          <t>Then if anyone goes out of the doors of your house into the street, o his blood shall be on his own head, and we shall be guiltless. But if a hand is laid on anyone who is with you in the house, his blood shall be on our head.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Joshua 3:5</t>
+          <t>Joshua 2:20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Then Joshua said to the people, Consecrate yourselves, for tomorrow the Lord will do wonders among you. 6</t>
+          <t>But if you p tell this business of ours, then we shall be guiltless with respect to your oath that you have made us swear.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Joshua 3:6</t>
+          <t>Joshua 2:21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>And Joshua said to the priests, Take up the ark of the cov173 enant and pass on before the people. So they took up the ark of the cov173 enant and went before the people. 7</t>
+          <t>And she said, According to your words, so be it. Then she sent them away, and they departed. And she tied the scarlet cord in the window.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Joshua 3:7</t>
+          <t>Joshua 2:22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The Lord said to Joshua, Today I will begin to exalt you in the sight of all Israel, that they may know that, as I was with Moses, so I will be with you. 8</t>
+          <t>They departed and went into the hills and remained there three days until the pursuers returned, and the pursuers searched all along the way and found nothing.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Joshua 3:8</t>
+          <t>Joshua 2:23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>And as for you, command the priests who bear the ark of the cov173 enant, When you come to the brink of the waters of the Jordan, you shall stand still in the Jordan. 9</t>
+          <t>Then the two men returned. They came down from the hills and q passed over and came to Joshua the son of Nun, and they told him all that had happened to them.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Joshua 3:9</t>
+          <t>Joshua 2:24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>And Joshua said to the people of Israel, Come here and listen to the words of the Lord your God.</t>
+          <t>And they said to Joshua, Truly r the Lord has given all the land into our hands. And also, all the in?hab?i?tants of the land s melt away because of us. Israel Crosses the Jordan</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Joshua 3:10</t>
+          <t>Joshua 3:1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>And Joshua said, Here is how you shall know that the living God is among you and that he will without fail drive out from before you the Canaanites, the Hittites, the Hivites, the Perizzites, the Girgashites, the Amorites, and the Jebusites.</t>
+          <t>Then Joshua rose early in the morning and they set out t from Shittim. And they came to the Jordan, he and all the people of Israel, and lodged there before they passed over.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Joshua 3:11</t>
+          <t>Joshua 3:2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Behold, the ark of the cov173 enant of the Lord of all the eart16 h is passing over before you into the Jordan.</t>
+          <t>u At the end of three days the officers went through the camp</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Joshua 3:12</t>
+          <t>Joshua 3:3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Now therefore take twelve men from the tribes of Israel, from each tribe a man.</t>
+          <t>and commanded the people, As soon as you see the ark of the cov?enant of the Lord your God being carried by v the Levitical priests, then you shall set out from your place and follow it.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Joshua 3:13</t>
+          <t>Joshua 3:4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>And when the soles of the feet of the priests bearing the ark of the Lord , the Lord of all the earth, shall rest in the waters of the Jordan, the waters of the Jordan shall be cut off from flowing, and the waters coming down from above shall stand in one heap.</t>
+          <t>w Yet there shall be a distance between you and it, about 2,000 cubit s in length. Do not come near it, in order that you may know the way you shall go, for you have not passed this way before.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Joshua 3:14</t>
+          <t>Joshua 3:5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>So when the people set out from their tents to pass over the Jordan with the priests bearing the ark of the cov173 enant before the people,</t>
+          <t>Then Joshua said to the people, x Consecrate yourselves, for tomorrow the Lord will do wonders among you.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Joshua 3:15</t>
+          <t>Joshua 3:6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>and as soon as those bearing the ark had come as far as the Jordan, and the feet of the priests bearing the ark were dipped in the brink of the water (now the Jordan overflows all its banks throughout the time of harvest),</t>
+          <t>And Joshua said to the priests, y Take up the ark of the cov?enant and pass on before the people. So they took up the ark of the cov?enant and went before the people.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Joshua 3:16</t>
+          <t>Joshua 3:7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>the waters coming down from above stood and rose up in a heap very far away, at Adam, the city that is beside Zarethan, and those flowing down toward the Sea of the Arabah, the Salt Sea, were completely cut off. And the people passed over opposite Jericho.</t>
+          <t>The Lord said to Joshua, Today I will begin to z exalt you in the sight of all Israel, that they may know that, a as I was with Moses, so I will be with you.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Joshua 3:17</t>
+          <t>Joshua 3:8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Now the priests bearing the ark of the cov173 enant of the Lord stood firmly on dry ground in the midst of the Jordan, and all Israel was passing over on dry ground until all the nation finished passing over the Jordan. Twelve Memorial Stones from the Jordan 4</t>
+          <t>And as for you, command b the priests who bear the ark of the cov?enant, When you come to the brink of the waters of the Jordan, c you shall stand still in the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Joshua 4:1</t>
+          <t>Joshua 3:9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>When all the nation had finished passing over the Jordan, the Lord said to Joshua, 2</t>
+          <t>And Joshua said to the people of Israel, Come here and listen to the words of the Lord your God.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Joshua 4:3</t>
+          <t>Joshua 3:10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>and command them, saying, Take twelve stones from here out of the midst of the Jordan, from the very place where the priests feet stood firmly, and bring them over with you and lay them down in the place where you lodge tonight. 4</t>
+          <t>And Joshua said, Here is how you shall know that d the living God is among you and that he will without fail e drive out from before you the Canaanites, the Hittites, the Hivites, the Perizzites, the Girgashites, the Amorites, and the Jebusites.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Joshua 4:4</t>
+          <t>Joshua 3:11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Then Joshua called the twelve men from the people of Israel, whom he had appointed, a man from each tribe. 5</t>
+          <t>Behold, the ark of the cov?enant of f the Lord of all the eart h</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joshua 4:5</t>
+          <t>Joshua 3:12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>And Joshua said to them, Pass on before the ark of the Lord your God into the midst of the Jordan, and take up each of you a stone upon his shoulder, according to the number of the tribes of the people of Israel, 6</t>
+          <t>g is passing over before you into the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Joshua 4:6</t>
+          <t>Joshua 3:12</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>that this may be a sign among you. When your children ask in time to come, What do those stones mean to you 7</t>
+          <t>Now therefore h take twelve men from the tribes of Israel, i from each tribe a man.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Joshua 4:7</t>
+          <t>Joshua 3:13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>then you shall tell them that the waters of the Jordan were cut off before the ark of the cov173 enant of the Lord . When it passed over the Jordan, the waters of the Jordan were cut off. So these stones shall be to the people of Israel a memorial forever. 8</t>
+          <t>And j when the soles of the feet of the priests bearing the ark of the Lord, f the Lord of all the earth, shall rest in the waters of the Jordan, the waters of the Jordan shall be cut off from flowing, and the waters coming down from above shall k stand in one heap.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Joshua 4:8</t>
+          <t>Joshua 3:14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>And the people of Israel did just as Joshua commanded and took up twelve stones out of the midst of the Jordan, according to the number of the tribes of the people of Israel, just as the Lord told Joshua. And they carried them over with them to the place where they lodged and laid them dow n there. 9</t>
+          <t>So when the people set out from their tents to pass over the Jordan with the priests bearing l the ark of the cov?enant before the people,</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Joshua 4:9</t>
+          <t>Joshua 3:15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>And Joshua set u16 p twelve stones in the midst of the Jordan, in the place where the feet of the priests bearing the ark of the cov173 enant had stood; and they are there to this day.</t>
+          <t>and as soon as those bearing the ark had come as far as the Jordan, and m the feet of the priests bearing the ark were dipped in the brink of the water,</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Joshua 4:10</t>
+          <t>Joshua 3:16</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>For the priests bearing the ark stood in the midst of the Jordan until everything was finished that the Lord commanded Joshua to tell the people, according to all that Moses had commanded Joshua. The people passed over in haste.</t>
+          <t>the waters coming down from above stood and rose up in a heap very far away, at Adam, the city that is beside p Zarethan, and those flowing down toward the Sea of q the Arabah, r the Salt Sea, were completely cut off. And the people passed over opposite Jericho.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Joshua 4:11</t>
+          <t>Joshua 3:17</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>And when all the people had finished passing over, the ark of the Lord and the priests passed over before the people.</t>
+          <t>Now the priests bearing the ark of the cov?enant of the Lord stood firmly on dry ground in the midst of the Jordan, s and all Israel was passing over on dry ground until all the nation finished passing over the Jordan. Twelve Memorial Stones from the Jordan</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Joshua 4:12</t>
+          <t>Joshua 4:1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The sons of Reuben and the sons of Gad and the half- tribe of Manasseh passed over armed before the people of Israel, as Moses had told them.</t>
+          <t>When all the nation had finished passing t over the Jordan, the Lord said to Joshua,</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Joshua 4:13</t>
+          <t>Joshua 4:2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>About , ready for war passed over before the Lord for battle, to the plains of Jericho.</t>
+          <t>u Take twelve men from the people, from each tribe a man,</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Joshua 4:14</t>
+          <t>Joshua 4:3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>On that day the Lord exalted Joshua in the sight of all Israel, and they stood in awe of him just as they had stood in awe of Moses, all the days of his life.</t>
+          <t>and command them, saying, Take v twelve stones from here out of the midst of the Jordan, from the very place w where the priests feet stood firmly, and bring them over with you and lay them down in x the place where you lodge tonight.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Joshua 4:15</t>
+          <t>Joshua 4:4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua,</t>
+          <t>Then Joshua called the twelve men from the people of Israel, whom he had appointed, a man from each tribe.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Joshua 4:16</t>
+          <t>Joshua 4:5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Command the priests bearing the ark of the testimony to come up out of the Jordan.</t>
+          <t>And Joshua said to them, Pass on before the ark of the Lord your God into the midst of the Jordan, and take up each of you a stone upon his shoulder, according to the number of the tribes of the people of Israel,</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Joshua 4:17</t>
+          <t>Joshua 4:6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>So Joshua commanded the priests, Come up out of the Jordan.</t>
+          <t>that this may be a sign among you. y When your children ask in time to come, What do those stones mean to you?</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Joshua 4:18</t>
+          <t>Joshua 4:7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>And when the priests bearing the ark of the cov173 enant of the Lord came up from the midst of the Jordan, and the soles of the priests feet were lifted up on dry ground, the waters of the Jordan returned to their place and overflowed all its banks, as before.</t>
+          <t>then you shall tell them that z the waters of the Jordan were cut off before the ark of the cov?enant of the Lord. When it passed over the Jordan, the waters of the Jordan were cut off. So these stones shall be to the people of Israel a a memorial forever.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Joshua 4:19</t>
+          <t>Joshua 4:8</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>The people came up out of the Jordan on the tenth day of the first month, and they encamped at Gilgal on the east border of Jericho.</t>
+          <t>And the people of Israel did just as Joshua commanded and took up twelve stones out of the midst of the Jordan, according to the number of the tribes of the people of Israel, just as the Lord told Joshua. And they carried them over with them to the place where they lodged and laid them dow n there.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Joshua 4:20</t>
+          <t>Joshua 4:9</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>And those twelve stones, which they took out of the Jordan, Joshua set up at Gilgal.</t>
+          <t>And Joshua set u p twelve stones in the midst of the Jordan, b in the place where the feet of the priests bearing the ark of the cov?enant had stood; and they are there to this day.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Joshua 4:21</t>
+          <t>Joshua 4:10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>And he said to the people of Israel, When your children ask their fathers in times to come, What do these stones mean</t>
+          <t>For the priests bearing the ark stood in the midst of the Jordan until everything was finished that the Lord commanded Joshua to tell the people, according to all that Moses had commanded Joshua. The people passed over in haste.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Joshua 4:22</t>
+          <t>Joshua 4:11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>then you shall let your children know, Israel passed over this Jordan on dry ground.</t>
+          <t>And when all the people had finished passing over, the ark of the Lord and the priests passed over before the people.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Joshua 4:23</t>
+          <t>Joshua 4:12</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>For the Lord your God dried up the waters of the Jordan for you until you passed over, as the Lord your God did to the Red Sea, which he dried up for us until we passed over,</t>
+          <t>The sons of Reuben and the sons of Gad and the half-tribe of Manasseh c passed over armed before the people of Israel, as Moses had told them.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Joshua 5:1</t>
+          <t>Joshua 4:13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>As soon as all the kings of the Amorites who were beyond the Jordan to the west, and all the kings of the Canaanites who were by the sea, heard that the Lord had dried up the waters of the Jordan for the people of Israel until they had crossed over, their hearts melted and there was no long173 er any spirit in them because of the people of Israel. 2</t>
+          <t>About 40,000 ready for war passed over before the Lord for battle, to the plains of Jericho.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Joshua 5:2</t>
+          <t>Joshua 4:14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>At that time the Lord said to Joshua, Make flint knives and circumcise the sons of Israel a second time. 3</t>
+          <t>On that day the Lord d exalted Joshua in the sight of all Israel, and they stood in awe of him just as they had stood in awe of Moses, all the days of his life.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Joshua 5:3</t>
+          <t>Joshua 4:15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>So Joshua made flint knives and circumcised the sons of Israel at Gibeath- haaraloth. 4</t>
+          <t>And the Lord said to Joshua,</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Joshua 5:4</t>
+          <t>Joshua 4:16</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>And this is the reason why Joshua circumcised them: all the males of the people who came out of Egypt, all the men of war, had died in the wilderness on the way after they had come out of Egypt. 5</t>
+          <t>Command the priests bearing e the ark of the testimony to come up out of the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Joshua 5:5</t>
+          <t>Joshua 4:17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Though all the people who came out had been circumcised, yet all the people who were born on the way in the wilderness after they had come out of Egypt had not been circumcised. 6</t>
+          <t>So Joshua commanded the priests, Come up out of the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Joshua 5:6</t>
+          <t>Joshua 4:18</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>For the people of Israel walked forty years in the wilderness, until all the nation, the men of war who came out of Egypt, perished, because they did not obey the voice of the Lord ; the Lord swore to them that he would not let them see the land that the Lord had sworn to their fathers to give to us, a land flowing with milk and honey. 7</t>
+          <t>And when the priests bearing the ark of the cov?enant of the Lord came up from the midst of the Jordan, and the soles of the priests feet were lifted up on dry ground, the waters of the Jordan returned to their place and overflowed all its banks, f as before.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Joshua 5:7</t>
+          <t>Joshua 4:19</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>So it was their children, whom he raised up in their place, that Joshua circumcised. For they were uncircumcised, because they had not been circumcised on the way. 8</t>
+          <t>The people came up out of the Jordan on the tenth day of the first month, and they encamped at g Gilgal on the east border of Jericho.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Joshua 5:8</t>
+          <t>Joshua 4:20</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>When the circumcising of the whole nation was finished, they remained in their places in the camp until they were healed. 9</t>
+          <t>And h those twelve stones, which they took out of the Jordan, Joshua set up at Gilgal.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Joshua 5:9</t>
+          <t>Joshua 4:21</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua, Today I have rolled away the reproach of Egypt from you. And so the name of that place is called Gilga16 l to this day. First Passover in Canaan</t>
+          <t>And he said to the people of Israel, i When your children ask their fathers in times to come, What do these stones mean?</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Joshua 5:10</t>
+          <t>Joshua 4:22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>While the people of Israel were encamped at Gilgal, they kept the Passover on the fourteenth day of the month in the evening on the plains of Jericho.</t>
+          <t>then you shall let your children know, j Israel passed over this Jordan on dry ground.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Joshua 5:11</t>
+          <t>Joshua 4:23</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>And the day after the Passover, on that very day, they ate of the produce of the land, unleavened cakes and parched grain.</t>
+          <t>For the Lord your God dried up the waters of the Jordan for you until you passed over, as the Lord your God did to the Red Sea, k which he dried up for us until we passed over,</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Joshua 5:12</t>
+          <t>Joshua 4:24</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>And the manna ceased the day after they ate of the produce of the land. And there was no long173 er manna for the people of Israel, but they ate of the fruit of the land of Canaan that year. The Commander of the Lord15's Army</t>
+          <t>l so that all the peoples of the earth may know that the hand of the Lord is m mighty, that you may n fear the Lord your God forever. The New Generation Circumcised</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Joshua 5:13</t>
+          <t>Joshua 5:1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>When Joshua was by Jericho, he lifted up his eyes and looked, and behold, a man was standing before him with his drawn sword in his hand. And Joshua went to him and said to him, Are you for us, or for our adversaries</t>
+          <t>As soon as all the kings of the Amorites who were beyond the Jordan to the west, and all the kings of the Canaanites o who were by the sea, p heard that the Lord had dried up the waters of the Jordan for the people of Israel until they had crossed over, their hearts q melted and r there was no long?er any spirit in them because of the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Joshua 5:14</t>
+          <t>Joshua 5:2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>And he said, No; but I am the commander of the army of the Lord . Now I have come. And Joshua fell on his face to the earth and worshipe16 d and said to him, What does my lord say to his servant</t>
+          <t>At that time the Lord said to Joshua, Make s flint knives and circumcise the sons of Israel a second time.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Joshua 5:15</t>
+          <t>Joshua 5:3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>And the commander of the Lord's army said to Joshua, Take off your sandals from your feet, for the place where you are standing is holy. And Joshua did so. The Fall of Jericho 6</t>
+          <t>So Joshua made flint knives and circumcised the sons of Israel at Gibeath-haaraloth.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Joshua 6:1</t>
+          <t>Joshua 5:4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Now Jericho was shut up inside and outside because of the people of Israel. None went out, and none came in. 2</t>
+          <t>And this is the reason why Joshua circumcised them: t all the males of the people who came out of Egypt, all the men of war, had died in the wilderness on the way after they had come out of Egypt.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Joshua 6:2</t>
+          <t>Joshua 5:5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua, See, I have given Jericho into your hand, with its king and mighty men of valor. 3</t>
+          <t>Though all the people who came out had been circumcised, yet all the people who were born on the way in the wilderness after they had come out of Egypt had not been circumcised.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Joshua 6:3</t>
+          <t>Joshua 5:6</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>You shall march around the city, all the men of war going around the city once. Thus shall you do for six days. 4</t>
+          <t>For the people of Israel walked u forty years in the wilderness, until all the nation, the men of war who came out of Egypt, perished, because they did not obey the voice of the Lord; the Lord v swore to them that he would not let them see the land that the Lord had sworn to their fathers to give to us, w a land flowing with milk and honey.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Joshua 6:4</t>
+          <t>Joshua 5:7</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Seven priests shall bear seven trumpets of rams horns before the ark. On the seventh day you shall march around the city seven times, and the priests shall blow the trumpets. 5</t>
+          <t>So it was x their children, whom he raised up in their place, that Joshua circumcised. For they were uncircumcised, because they had not been circumcised on the way.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Joshua 6:5</t>
+          <t>Joshua 5:8</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>And when they make a long blast with the ram's horn, when you hear the sound of the trumpet, then all the people shall shout with a great shout, and the wall of the city will fall down flat, and the people shall go up, everyone straight before him. 6</t>
+          <t>When the circumcising of the whole nation was finished, they remained in their places in the camp until they were healed.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Joshua 6:6</t>
+          <t>Joshua 5:9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>So Joshua the son of Nun called the priests and said to them, Take up the ark of the cov173 enant and let seven priests bear seven trumpets of rams horns before the ark of the Lord . 7</t>
+          <t>And the Lord said to Joshua, Today I have rolled away the y reproach of Egypt from you. And so the name of that place is called z Gilga l to this day. First Passover in Canaan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Joshua 6:7</t>
+          <t>Joshua 5:10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>And he said to the people, Go forward. March around the city and let the armed men pass on before the ark of the Lord . 8</t>
+          <t>While the people of Israel were encamped at Gilgal, they kept the Passover a on the fourteenth day of the month in the evening on the plains of Jericho.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Joshua 6:8</t>
+          <t>Joshua 5:11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>And just as Joshua had commanded the people, the seven priests bearing the seven trumpets of rams horns before the Lord went forward, blowing the trumpets, with the ark of the cov173 enant of the Lord following them. 9</t>
+          <t>And the day after the Passover, on that very day, they ate of the produce of the land, unleavened cakes and parched grain.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Joshua 6:9</t>
+          <t>Joshua 5:12</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The armed men were walking before the priests who were blowing the trumpets, and the rear guard was walking after the ark, while the trumpets blew continually.</t>
+          <t>And b the manna ceased the day after they ate of the produce of the land. And there was no long?er manna for the people of Israel, but they ate of the fruit of the land of Canaan that year. The Commander of the Lord s Army</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Joshua 6:10</t>
+          <t>Joshua 5:13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>But Joshua commanded the people, You shall not shout or make your voice heard, neither shall any word go out of your mouth, until the day I tell you to shout. Then you shall shout.</t>
+          <t>When Joshua was by Jericho, he lifted up his eyes and looked, and behold, c a man was standing before him d with his drawn sword in his hand. And Joshua went to him and said to him, Are you for us, or for our adversaries?</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Joshua 6:11</t>
+          <t>Joshua 5:14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>So he caused the ark of the Lord to circle the city, going about it once. And they came into the camp and spent the night in the camp.</t>
+          <t>And he said, No; but I am the commander of the army of the Lord. Now I have come. And Joshua e fell on his face to the earth and worshipe d and said to him, What does my lord say to his servant?</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Joshua 6:12</t>
+          <t>Joshua 5:15</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Then Joshua rose early in the morning, and the priests took up the ark of the Lord .</t>
+          <t>And the commander of the Lord s army said to Joshua, f Take off your sandals from your feet, for the place where you are standing is holy. And Joshua did so. The Fall of Jericho</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Joshua 6:13</t>
+          <t>Joshua 6:1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>And the seven priests bearing the seven trumpets of rams horns before the ark of the Lord walked on, and they blew the trumpets continually. And the armed men were walking before them, and the rear guard was walking after the ark of the Lord , while the trumpets blew continually.</t>
+          <t>Now Jericho was shut up inside and outside because of the people of Israel. None went out, and none came in.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Joshua 6:14</t>
+          <t>Joshua 6:2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>And the second day they marched around the city once, and returned into the camp. So they did for six days.</t>
+          <t>And the Lord said to Joshua, See, g I have given Jericho into your hand, with its king and mighty men of valor.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Joshua 6:15</t>
+          <t>Joshua 6:3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>On the seventh day they rose early, at the dawn of day, and marched around the city in the same manner seven times. It was only on that day that they marched around the city seven times.</t>
+          <t>You shall march around the city, all the men of war going around the city once. Thus shall you do for six days.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Joshua 6:16</t>
+          <t>Joshua 6:4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>And at the seventh time, when the priests had blown the trumpets, Joshua said to the people, Shout, for the Lord has given you the city.</t>
+          <t>Seven priests shall bear seven h trumpets of i rams horns before the ark. On the seventh day you shall march around the city seven times, and j the priests shall blow the trumpets.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Joshua 6:17</t>
+          <t>Joshua 6:5</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>And the city and all that is within it shall be devoted to the Lord for destruction. Only Rahab the prostitute and all who are with her in her house shall live, because she hid the messengers whom we sent.</t>
+          <t>And when they make a long blast with the ram s horn, when you hear the sound of the trumpet, then all the people shall shout with a great shout, and the wall of the city will fall down flat, and the people shall go up, everyone straight before him.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Joshua 6:18</t>
+          <t>Joshua 6:6</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>But you, keep yourselves from the things devoted to destruction, lest when you have devoted them you take any of the devoted things and make the camp of Israel a thing for destruction and bring trouble upon it.</t>
+          <t>So Joshua the son of Nun called the priests and said to them, Take up the ark of the cov?enant and let seven priests bear seven trumpets of rams horns before the ark of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Joshua 6:19</t>
+          <t>Joshua 6:7</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>But all silver and gold, and every vessel of bronze and iron, are holy to the Lord ; they shall go into the treasury of the Lord .</t>
+          <t>And he said to the people, Go forward. March around the city and let k the armed men pass on before the ark of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Joshua 6:20</t>
+          <t>Joshua 6:8</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>So the people shouted, and the trumpets were blown. As soon as the people heard the sound of the trumpet, the people shouted a great shout, and the wall fell down flat, so that the people went up into the city, every man straight before him, and they captured the city.</t>
+          <t>And just as Joshua had commanded the people, the seven priests bearing the seven trumpets of rams horns before the Lord went forward, blowing the trumpets, with the ark of the cov?enant of the Lord following them.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Joshua 6:21</t>
+          <t>Joshua 6:9</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Then they devoted all in the city to destruction, both men and women, young and old, oxen, sheep, and donkeys, with the edge of the sword.</t>
+          <t>The armed men were walking before the priests who were blowing the trumpets, and the l rear guard was walking after the ark, while the trumpets blew continually.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Joshua 6:22</t>
+          <t>Joshua 6:10</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>But to the two men who had spied out the land, Joshua said, Go into the prostitute's house and bring out from there the woman and all who belong to her, as you swore to her.</t>
+          <t>But Joshua commanded the people, You shall not shout or make your voice heard, neither shall any word go out of your mouth, until the day I tell you to shout. Then you shall shout.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Joshua 6:23</t>
+          <t>Joshua 6:11</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>So the young men who had been spies went in and brought out Rahab and her father and mother and brothers and all who belonged to her. And they brought all her relatives and put them outside the camp of Israel.</t>
+          <t>So he caused the ark of the Lord to circle the city, going about it once. And they came into the camp and spent the night in the camp.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Joshua 6:24</t>
+          <t>Joshua 6:12</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>And they burned the city with fire, and everything in it. Only the silver and gold, and the vessels of bronze and of iron, they put into the treasury of the house of the Lord .</t>
+          <t>Then Joshua rose early in the morning, and m the priests took up the ark of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Joshua 6:25</t>
+          <t>Joshua 6:13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>But Rahab the prostitute and her father's household and all who belonged to her, Joshua saved alive. And she has lived in Israel to this day, because she hid the messengers whom Joshua sent to spy out Jericho.</t>
+          <t>And the seven priests bearing the seven trumpets of rams horns before the ark of the Lord walked on, and they blew the trumpets continually. And the armed men were walking before them, and the rear guard was walking after the ark of the Lord, while the trumpets blew continually.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Joshua 6:26</t>
+          <t>Joshua 6:14</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Joshua laid an oath on them at that time, saying, Cursed before the Lord be the man who rises up and rebuilds this city, Jericho. - At the cost of his firstborn - shall he lay its foundation, - and at the cost of his youngest son - shall he set up its gates.</t>
+          <t>And the second day they marched around the city once, and returned into the camp. So they did for six days.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Joshua 7:1</t>
+          <t>Joshua 6:15</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>But the people of Israel broke faith in regard to the devoted things, for Achan the son of Carmi, son of Zabdi, son of Zerah, of the tribe of Judah, took some of the devoted things. And the anger of the Lord burned against the people of Israel. 2</t>
+          <t>On the seventh day they rose early, at the dawn of day, and marched around the city in the same manner seven times. It was only on that day that they marched around the city seven times.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Joshua 7:2</t>
+          <t>Joshua 6:16</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Joshua sent men from Jericho to Ai, which is near Beth- aven, east of Bethel, and said to them, Go up and spy out the land. And the men went up and spied out Ai. 3</t>
+          <t>And at the seventh time, when the priests had blown the trumpets, Joshua said to the people, Shout, for the Lord has given you the city.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Joshua 7:3</t>
+          <t>Joshua 6:17</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>And they returned to Joshua and said to him, Do not have all the people go up, but let about two or three thousand men go up and attack Ai. Do not make the whole people toil up there, for they are few. 4</t>
+          <t>And the city and all that is within it shall be n devoted to the Lord for destruction. Only Rahab the prostitute and all who are with her in her house shall live, because she o hid the messengers whom we sent.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Joshua 7:4</t>
+          <t>Joshua 6:18</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>So about three thousand men went up there from the people. And they fled before the men of Ai, 5</t>
+          <t>But you, keep yourselves from the things devoted to destruction, lest when you have devoted them you take any of the devoted things and make the camp of Israel p a thing for destruction and q bring trouble upon it.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Joshua 7:5</t>
+          <t>Joshua 6:19</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>and the men of Ai killed about thirty- six of their men and chased them before the gate as far as Shebarim and struck them at the descent. And the hearts of the people melted and became as water. 6</t>
+          <t>But all silver and gold, and every vessel of bronze and iron, are holy to the Lord; they shall go into the treasury of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Joshua 7:6</t>
+          <t>Joshua 6:20</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Then Joshua tore his clothes and fell to the earth on his face before the ark of the Lord until the evening, he and the elders of Israel. And they put dust on their heads. 7</t>
+          <t>So the people shouted, and the trumpets were blown. As soon as the people heard the sound of the trumpet, the people shouted a great shout, and r the wall fell down flat, so that the people went up into the city, every man straight before him, and they captured the city.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Joshua 7:7</t>
+          <t>Joshua 6:21</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>And Joshua said, Alas, O Lord God16 , why have you brought this people over the Jordan at all, to give us into the hands of the Amorites, to destroy us Would that we had been content to dwell beyond the Jordan! 8</t>
+          <t>Then they s devoted all in the city to destruction, both men and women, young and old, oxen, sheep, and donkeys, with the edge of the sword.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Joshua 7:8</t>
+          <t>Joshua 6:22</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>O Lord, what can I say, when Israel has turned their backs before their enemies! 9</t>
+          <t>But to the two men who had spied out the land, Joshua said, Go into the prostitute s house and bring out from there the woman and all who belong to her, t as you swore to her.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Joshua 7:9</t>
+          <t>Joshua 6:23</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>For the Canaanites and all the in173 hab173 i173 tants of the land will hear of it and will surround us and cut off our name from the earth. And what will you do for your great name The Sin of Achan</t>
+          <t>So the young men who had been spies went in and brought out Rahab and u her father and mother and brothers and all who belonged to her. And they brought all her relatives and put them outside the camp of Israel.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Joshua 7:10</t>
+          <t>Joshua 6:24</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>The Lord said to Joshua, Get up! Why have you fallen on your face</t>
+          <t>And they burned the city with fire, and everything in it. v Only the silver and gold, and the vessels of bronze and of iron, they put into the treasury of the house of the Lord.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Joshua 7:11</t>
+          <t>Joshua 6:25</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Israel has sinned; they have transgressed my cov173 enant that I commanded them; they have taken some of the devoted things; they have stolen and lied and put them among their own belongings.</t>
+          <t>But Rahab the prostitute and her father s household and all who belonged to her, Joshua saved alive. And w she has lived in Israel to this day, because she hid the messengers whom Joshua sent to spy out Jericho.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Joshua 7:13</t>
+          <t>Joshua 6:26</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Get up! Consecrate the people and say, Consecrate yourselves for tomorrow; for thus says the Lord , God of Israel, There are devoted things in your midst, O Israel. You cannot stand before your enemies until you take away the devoted things from among you.</t>
+          <t>Joshua laid an oath on them at that time, saying, x Cursed before the Lord be the man who rises up and rebuilds this city, Jericho. At the cost of his firstborn shall he lay its foundation, and at the cost of his youngest son shall he set up its gates.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Joshua 7:14</t>
+          <t>Joshua 6:27</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>In the morning therefore you shall be brought near by your tribes. And the tribe that the Lord takes by lot shall come near by clans. And the clan that the Lord takes shall come near by households. And the household that the Lord takes shall come near man by man.</t>
+          <t>y So the Lord was with Joshua, and z his fame was in all the land. Israel Defeated at Ai</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Joshua 7:16</t>
+          <t>Joshua 7:1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>So Joshua rose early in the morning and brought Israel near tribe by tribe, and the tribe of Judah was taken.</t>
+          <t>But the people of Israel broke faith in regard to the devoted things, for a Achan the son of Carmi, son of Zabdi, son of Zerah, of the tribe of Judah, took some of the devoted things. And the anger of the Lord burned against the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Joshua 7:17</t>
+          <t>Joshua 7:2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>And he brought near the clans of Judah, and the clan of the Zerahites was taken. And he brought near the clan of the Zerahites man by man, and Zabdi was taken.</t>
+          <t>Joshua sent men from Jericho to Ai, which is near b Beth-aven, east of Bethel, and said to them, Go up and spy out the land. And the men went up and spied out Ai.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Joshua 7:18</t>
+          <t>Joshua 7:3</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>And he brought near his household man by man, and Achan the son of Carmi, son of Zabdi, son of Zerah, of the tribe of Judah, was taken.</t>
+          <t>And they returned to Joshua and said to him, Do not have all the people go up, but let about two or three thousand men go up and attack Ai. Do not make the whole people toil up there, for they are few.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Joshua 7:19</t>
+          <t>Joshua 7:4</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Then Joshua said to Achan, My son, give glory to the Lord God of Israel and give prais16 e to him. And tell me now what you have done; do not hide it from me.</t>
+          <t>So about three thousand men went up there from the people. And c they fled before the men of Ai,</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Joshua 7:20</t>
+          <t>Joshua 7:5</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>And Achan answered Joshua, Truly I have sinned against the Lord God of Israel, and this is what I did:</t>
+          <t>and the men of Ai killed about thirty-six of their men and chased them before the gate as far as Shebarim and struck them at the descent. And the hearts of the people d melted and became as water.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Joshua 7:21</t>
+          <t>Joshua 7:6</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>when I saw among the spoil a beautiful cloak from Shinar, and shekels of silver, and a bar of gold weighing shekels, then I coveted them and took them. And see, they are hidden in the earth inside my tent, with the silver underneath.</t>
+          <t>Then Joshua e tore his clothes and f fell to the earth on his face before the ark of the Lord until the evening, he and the elders of Israel. And they put g dust on their heads.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Joshua 7:22</t>
+          <t>Joshua 7:7</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>So Joshua sent messengers, and they ran to the tent; and behold, it was hidden in his tent with the silver underneath.</t>
+          <t>And Joshua said, Alas, O Lord God, h why have you brought this people over the Jordan at all, to give us into the hands of the Amorites, to destroy us? Would that we had been content to dwell beyond the Jordan!</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Joshua 7:23</t>
+          <t>Joshua 7:8</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>And they took them out of the tent and brought them to Joshua and to all the people of Israel. And they laid them down before the Lord .</t>
+          <t>O Lord, what can I say, when Israel has turned their backs before their enemies!</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Joshua 7:24</t>
+          <t>Joshua 7:9</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>And Joshua and all Israel with him took Achan the son of Zerah, and the silver and the cloak and the bar of gold, and his sons and daughters and his oxen and donkeys and sheep and his tent and all that he had. And they brought them up to the Valley of Achor.</t>
+          <t>For the Canaanites and all the in?hab?i?tants of the land will hear of it and will surround us and i cut off our name from the earth. And what will you do for your great name? The Sin of Achan</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Joshua 7:25</t>
+          <t>Joshua 7:10</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>And Joshua said, Why did you bring trouble on us The Lord brings trouble on you today. And all Israel stoned him with stones. They burned them with fire and stoned them with stones.</t>
+          <t>The Lord said to Joshua, Get up! Why have you fallen on your face?</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Joshua 7:26</t>
+          <t>Joshua 7:11</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>And they raised over him a great heap of stones that remains to this day. Then the Lord turned from his burning anger. Therefore, to this day the name of that place is called the Valley of Achor. The Fall of Ai 8</t>
+          <t>Israel has sinned; they have j transgressed my cov?enant that I commanded them; they have taken some of the k devoted things; they have stolen and lied and put them among their own belongings.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Joshua 8:1</t>
+          <t>Joshua 7:12</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua, Do not fear and do not be dismayed. Take all the fighting men with you, and arise, go up to Ai. See, I have given into your hand the king of Ai, and his people, his city, and his land. 2</t>
+          <t>l Therefore the people of Israel cannot stand before their enemies. They m turn their backs before their enemies, because they have become n devoted for destruction. I will be with you no more, unless you destroy o the devoted things from among you.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Joshua 8:2</t>
+          <t>Joshua 7:13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>And you shall do to Ai and its king as you did to Jericho and its king. Only its spoil and its livestock you shall take as plunder for yourselves. Lay an ambush against the city, behind it. 3</t>
+          <t>Get up! Consecrate the people and say, p Consecrate yourselves for tomorrow; for thus says the Lord, God of Israel, There are devoted things in your midst, O Israel. You cannot stand before your enemies until you take away the devoted things from among you.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Joshua 8:3</t>
+          <t>Joshua 7:14</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>So Joshua and all the fighting men arose to go up to Ai. And Joshua chose , mighty men of valor and sent them out by night. 4</t>
+          <t>In the morning therefore you shall be brought near q by your tribes. And the tribe that the Lord takes by lot shall come near by clans. And the clan that the Lord takes shall come near by households. And the household that the Lord takes shall come near man by man.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Joshua 8:4</t>
+          <t>Joshua 7:15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>And he commanded them, Behold, you shall lie in ambush against the city, behind it. Do not go very far from the city, but all of you remain ready. 5</t>
+          <t>r And he who is taken with the devoted things shall be burned with fire, he and all that he has, because he has s transgressed the cov?enant of the Lord, and because he has done t an outrageous thing in Israel.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Joshua 8:5</t>
+          <t>Joshua 7:16</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>And I and all the people who are with me will approach the city. And when they come out against us just as before, we shall flee before them. 6</t>
+          <t>So Joshua rose early in the morning and brought Israel near tribe by tribe, and the tribe of Judah was taken.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Joshua 8:6</t>
+          <t>Joshua 7:17</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>And they will come out after us, until we have drawn them away from the city. For they will say, They are fleeing from us, just as before. So we will flee before them. 7</t>
+          <t>And he brought near the clans of Judah, and the clan of the u Zerahites was taken. And he brought near the clan of the Zerahites man by man, and Zabdi was taken.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Joshua 8:7</t>
+          <t>Joshua 7:18</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Then you shall rise up from the ambush and seize the city, for the Lord your God will give it into your hand. 8</t>
+          <t>And he brought near his household man by man, and Achan the son of Carmi, son of Zabdi, son of Zerah, of the tribe of Judah, was taken.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Joshua 8:8</t>
+          <t>Joshua 7:19</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>And as soon as you have taken the city, you shall set the city on fire. You shall do according to the word of the Lord . See, I have commanded you. 9</t>
+          <t>Then Joshua said to Achan, My son, v give glory to the Lord God of Israel and w give prais e to him. And x tell me now what you have done; do not hide it from me.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Joshua 8:9</t>
+          <t>Joshua 7:20</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>So Joshua sent them out. And they went to the place of ambush and lay between Bethel and Ai, to the west of Ai, but Joshua spent that night among the people.</t>
+          <t>And Achan answered Joshua, Truly y I have sinned against the Lord God of Israel, and this is what I did:</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Joshua 8:10</t>
+          <t>Joshua 7:21</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Joshua arose early in the morning and mustered the people and went up, he and the elders of Israel, before the people to Ai.</t>
+          <t>when I saw among the spoil a beautiful cloak from Shinar, and shekels of silver, and a bar of gold weighing shekels, then I coveted them and took them. And see, they are hidden in the earth inside my tent, with the silver underneath.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Joshua 8:11</t>
+          <t>Joshua 7:22</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>And all the fighting men who were with him went up and drew near before the city and encamped on the north side of Ai, with a ravine between them and Ai.</t>
+          <t>So Joshua sent messengers, and they ran to the tent; and behold, it was hidden in his tent with the silver underneath.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Joshua 8:12</t>
+          <t>Joshua 7:23</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>He took about 5, men and set them in ambush between Bethel and Ai, to the west of the city.</t>
+          <t>And they took them out of the tent and brought them to Joshua and to all the people of Israel. And they laid them down before the Lord.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Joshua 8:13</t>
+          <t>Joshua 7:24</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>So they stationed the forces, the main encampment that was north of the city and its rear guard west of the city. But Joshua spent that night in the valley.</t>
+          <t>And Joshua and all Israel with him took Achan the son of Zerah, and the silver and the cloak and the bar of gold, and his sons and daughters and his oxen and donkeys and sheep and his tent and all that he had. And they brought them up to the z Valley of Achor.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Joshua 8:14</t>
+          <t>Joshua 7:25</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>And as soon as the king of Ai saw this, he and all his people, the men of the city, hurried and went out early to the appointed plac e toward the Arabah to meet Israel in battle. But he did not know that there was an ambush against him behind the city.</t>
+          <t>And Joshua said, Why did you a bring trouble on us? The Lord brings trouble on you today. And all Israel b stoned him with stones. c They burned them with fire and stoned them with stones.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Joshua 8:15</t>
+          <t>Joshua 7:26</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>And Joshua and all Israel pretended to be beaten before them and fled in the direction of the wilderness.</t>
+          <t>And they raised over him d a great heap of stones that remains to this day. Then e the Lord turned from his burning anger. Therefore, to this day the name of that place is called the Valley of Achor. The Fall of Ai</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Joshua 8:16</t>
+          <t>Joshua 8:1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>So all the people who were in the city were called together to pursue them, and as they pursued Joshua they were drawn away from the city.</t>
+          <t>And the Lord said to Joshua, f Do not fear and do not be dismayed. Take all the fighting men with you, and arise, go up to Ai. See, g I have given into your hand the king of Ai, and his people, his city, and his land.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Joshua 8:17</t>
+          <t>Joshua 8:2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Not a man was left in Ai or Bethel who did not go out after Israel. They left the city open and pursued Israel.</t>
+          <t>And you shall do to Ai and its king as you did h to Jericho and its king. Only i its spoil and its livestock you shall take as plunder for yourselves. Lay an ambush against the city, behind it.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Joshua 8:18</t>
+          <t>Joshua 8:3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Then the Lord said to Joshua, Stretch out the javelin that is in your hand toward Ai, for I will give it into your hand. And Joshua stretched out the javelin that was in his hand toward the city.</t>
+          <t>So Joshua and all the fighting men arose to go up to Ai. And Joshua chose 30,000 mighty men of valor and sent them out by night.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Joshua 8:19</t>
+          <t>Joshua 8:4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>And the men in the ambush rose quickly out of their place, and as soon as he had stretched out his hand, they ran and entered the city and captured it. And they hurried to set the city on fire.</t>
+          <t>And he commanded them, Behold, j you shall lie in ambush against the city, behind it. Do not go very far from the city, but all of you remain ready.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Joshua 8:20</t>
+          <t>Joshua 8:5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>So when the men of Ai looked back, behold, the smoke of the city went up to heaven, and they had no power to flee this way or that, for the people who fled to the wilderness turned back against the pursuers.</t>
+          <t>And I and all the people who are with me will approach the city. And when they come out against us k just as before, we shall flee before them.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Joshua 8:21</t>
+          <t>Joshua 8:6</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>And when Joshua and all Israel saw that the ambush had captured the city, and that the smoke of the city went up, then they turned back and struck down the men of Ai.</t>
+          <t>And they will come out after us, until we have l drawn them away from the city. For they will say, They are fleeing from us, just as before. So we will flee before them.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Joshua 8:22</t>
+          <t>Joshua 8:7</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>And the others came out from the city against them, so they were in the midst of Israel, some on this side, and some on that side. And Israel struck them down, until there was left none that survived or escaped.</t>
+          <t>Then you shall rise up from the ambush and seize the city, for the Lord your God will give it into your hand.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Joshua 8:23</t>
+          <t>Joshua 8:8</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>But the king of Ai they took alive, and brought him near to Joshua.</t>
+          <t>And as soon as you have taken the city, you shall set the city on fire. You shall do according to the word of the Lord. m See, I have commanded you.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Joshua 8:24</t>
+          <t>Joshua 8:9</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>When Israel had finished killing all the in173 hab173 i173 tants of Ai in the open wilderness where they pursued them, and all of them to the very last had fallen by the edge of the sword, all Israel returned to Ai and struck it down with the edge of the sword.</t>
+          <t>So Joshua sent them out. And they went to the place of ambush and lay between Bethel and Ai, to the west of Ai, but Joshua spent that night among the people.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Joshua 8:25</t>
+          <t>Joshua 8:10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>And all who fell that day, both men and women, were , , all the people of Ai.</t>
+          <t>Joshua arose early in the morning and mustered the people and went up, he and the elders of Israel, before the people to Ai.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Joshua 8:26</t>
+          <t>Joshua 8:11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>But Joshua did not draw back his hand with which he stretched out the javelin until he had devoted all the in173 hab173 i173 tants of Ai to destruction.</t>
+          <t>And n all the fighting men who were with him went up and drew near before the city and encamped on the north side of Ai, with a ravine between them and Ai.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Joshua 8:27</t>
+          <t>Joshua 8:12</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Only the livestock and the spoil of that city Israel took as their plunder, according to the word of the Lord that he commanded Joshua.</t>
+          <t>He took about 5,000 men and set them in ambush between Bethel and Ai, to the west of the city.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Joshua 8:28</t>
+          <t>Joshua 8:13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>So Joshua burned Ai and made it forever a heap of ruins, as it is to this day.</t>
+          <t>So they stationed the forces, the main encampment that was north of the city and its rear guard west of the city. But Joshua spent that night in the valley.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Joshua 8:30</t>
+          <t>Joshua 8:14</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>At that time Joshua built an altar to the Lord , the God of Israel, on Mount Ebal,</t>
+          <t>And as soon as the king of Ai saw this, he and all his people, the men of the city, hurried and went out early to the appointed plac e toward o the Arabah to meet Israel in battle. p But he did not know that there was an ambush against him behind the city.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Joshua 8:31</t>
+          <t>Joshua 8:15</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>just as Moses the servant of the Lord had commanded the people of Israel, as it is written in the Book of the Law of Moses, an altar of uncut stones, upon which no man has wielded an iron tool. And they offered on it burnt offerings to the Lord and sacrificed peace offerings.</t>
+          <t>And Joshua and all Israel q pretended to be beaten before them and fled in the direction of the wilderness.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Joshua 8:32</t>
+          <t>Joshua 8:16</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>And there, in the presence of the people of Israel, he wrote on the stones a copy of the law of Moses, which he had written.</t>
+          <t>So all the people who were in the city were called together to pursue them, and as they pursued Joshua they r were drawn away from the city.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Joshua 8:33</t>
+          <t>Joshua 8:17</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>And all Israel, sojourner as well as native born, with their elders and officers and their judges, stood on opposite sides of the ark before the Levitical priests who carried the ark of the cov173 enant of the Lord , half of them in front of Mount Gerizim and half of them in front of Mount Ebal, just as Moses the servant of the Lord had commanded at the first, to bless the people of Israel.</t>
+          <t>Not a man was left in Ai or Bethel who did not go out after Israel. They left the city open and pursued Israel.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Joshua 8:34</t>
+          <t>Joshua 8:18</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>And afterward he read all the words of the law, the blessing and the curse, according to all that is written in the Book of the Law.</t>
+          <t>Then the Lord said to Joshua, s Stretch out the javelin that is in your hand toward Ai, for I will give it into your hand. And Joshua stretched out the javelin that was in his hand toward the city.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Joshua 8:35</t>
+          <t>Joshua 8:19</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>There was not a word of all that Moses commanded that Joshua did not read before all the assembly of Israel, and the women, and the little ones, and the sojourners who live16 d among them. The Gibeonite Deception 9</t>
+          <t>And the men in the ambush rose quickly out of their place, and as soon as he had stretched out his hand, they ran and entered the city and captured it. And they hurried to set the city on fire.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Joshua 9:1</t>
+          <t>Joshua 8:20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>As soon as all the kings who were beyond the Jordan in the hill country and in the lowland all along the coast of the Great Sea toward Lebanon, the Hittites, the Amorites, the Canaanites, the Perizzites, the Hivites, and the Jebusites, heard of this, 2</t>
+          <t>So when the men of Ai looked back, behold, the smoke of the city went up to heaven, and they had no power to flee this way or that, for the people who fled to the wilderness turned back against the pursuers.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Joshua 9:2</t>
+          <t>Joshua 8:21</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>they gathered together as one to fight against Joshua and Israel. 3</t>
+          <t>And when Joshua and all Israel saw that the ambush had captured the city, and that the smoke of the city went up, then they turned back and struck down the men of Ai.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Joshua 9:3</t>
+          <t>Joshua 8:22</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>But when the in173 hab173 i173 tants of Gibeon heard what Joshua had done to Jericho and to Ai, 4</t>
+          <t>And the others came out from the city against them, so they were in the midst of Israel, some on this side, and some on that side. And Israel struck them down, until there was t left none that survived or escaped.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Joshua 9:4</t>
+          <t>Joshua 8:23</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>they on their part acted with cunning and went and made ready provisions and took worn- out sacks for their donkeys, and wineskins, worn- out and torn and mended, 5</t>
+          <t>But the king of Ai they took alive, and brought him near to Joshua.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Joshua 9:5</t>
+          <t>Joshua 8:24</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>with worn- out, patched sandals on their feet, and worn- out clothes. And all their provisions were dry and crumbly. 6</t>
+          <t>When Israel had finished killing all the in?hab?i?tants of Ai in the open wilderness where they pursued them, and all of them to the very last had fallen by the edge of the sword, all Israel returned to Ai and struck it down with the edge of the sword.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Joshua 9:6</t>
+          <t>Joshua 8:25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>And they went to Joshua in the camp at Gilgal and said to him and to the men of Israel, We have come from a distant country, so now make a cov173 enant with us. 7</t>
+          <t>And all who fell that day, both men and women, were 12,000, all the people of Ai.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Joshua 9:7</t>
+          <t>Joshua 8:26</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>But the men of Israel said to the Hivites, Perhaps you live among us; then how can we make a cov173 enant with you 8</t>
+          <t>But Joshua did not draw back his hand with which he u stretched out the javelin until he had devoted all the in?hab?i?tants of Ai to destruction.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Joshua 9:8</t>
+          <t>Joshua 8:27</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>They said to Joshua, We are your servants. And Joshua said to them, Who are you And where do you come from 9</t>
+          <t>Only the livestock and the spoil of that city Israel took as their plunder, according to the word of the Lord that he v commanded Joshua.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Joshua 9:9</t>
+          <t>Joshua 8:28</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>They said to him, From a very distant country your servants have come, because of the name of the Lord your God. For we have heard a report of him, and all that he did in Egypt,</t>
+          <t>So Joshua burned Ai and made it forever a w heap of ruins, as it is to this day.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Joshua 9:11</t>
+          <t>Joshua 8:29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>So our elders and all the in173 hab173 i173 tants of our country said to us, Take provisions in your hand for the journey and go to meet them and say to them, We are your servants. Come now, make a cov173 enant with us.</t>
+          <t>x And he hanged the king of Ai on a tree until evening. y And at sunset Joshua commanded, and they took his body down from the tree and threw it at the entrance of the gate of the city and z raised over it a great heap of stones, which stands there to this day. Joshua Renews the Covenant</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Joshua 9:12</t>
+          <t>Joshua 8:30</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Here is our bread. It was still warm when we took it from our houses as our food for the journey on the day we set out to come to you, but now, behold, it is dry and crumbly.</t>
+          <t>At that time Joshua built an altar to the Lord, the God of Israel, a on Mount Ebal,</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Joshua 9:13</t>
+          <t>Joshua 8:31</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>These wineskins were new when we filled them, and behold, they have burst. And these garments and sandals of ours are worn out from the very long journey.</t>
+          <t>just as Moses the servant of the Lord had commanded the people of Israel, as it is written in the Book of the Law of Moses, an altar of uncut stones, upon which no man has wielded an iron tool. And they offered on it burnt offerings to the Lord and sacrificed peace offerings.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Joshua 9:14</t>
+          <t>Joshua 8:32</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>So the men took some of their provisions, but did not ask counsel from the Lord .</t>
+          <t>And there, in the presence of the people of Israel, he wrote on b the stones a copy of the law of Moses, which he had written.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Joshua 9:15</t>
+          <t>Joshua 8:33</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>And Joshua made peace with them and made a cov173 enant with them, to let them live, and the leaders of the congregation swore to them.</t>
+          <t>And all Israel, c sojourner as well as native born, with their elders and officers and their judges, stood on opposite sides of the ark before the Levitical priests d who carried the ark of the cov?enant of the Lord, half of them in front of Mount Gerizim and half of them in front of Mount Ebal, e just as Moses the servant of the Lord had commanded at the first, to bless the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Joshua 9:16</t>
+          <t>Joshua 8:34</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>At the end of three days after they had made a cov173 enant with them, they heard that they were their neighbors and that they lived among them.</t>
+          <t>And afterward f he read all the words of the law, g the blessing and the curse, according to all that is written in the Book of the Law.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Joshua 9:17</t>
+          <t>Joshua 8:35</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>And the people of Israel set out and reached their cities on the third day. Now their cities were Gibeon, Chephirah, Beeroth, and Kiriath- jearim.</t>
+          <t>There was not a word of all that Moses commanded that Joshua did not read before all the assembly of Israel, h and the women, and the little ones, and i the sojourners who live d among them. The Gibeonite Deception</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Joshua 9:18</t>
+          <t>Joshua 9:1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>But the people of Israel did not attack them, because the leaders of the congregation had sworn to them by the Lord , the God of Israel. Then all the congregation murmured against the leaders.</t>
+          <t>As soon as all the kings who were beyond the Jordan j in the hill country and in the lowland all along the coast k of the Great Sea toward Lebanon, l the Hittites, the Amorites, the Canaanites, the Perizzites, the Hivites, and the Jebusites, heard of this,</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Joshua 9:19</t>
+          <t>Joshua 9:2</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>But all the leaders said to all the congregation, We have sworn to them by the Lord , the God of Israel, and now we may not touch them.</t>
+          <t>they gathered together as one to fight against Joshua and Israel.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Joshua 9:20</t>
+          <t>Joshua 9:3</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>This we will do to them: let them live, lest wrath be upon us, because of the oath that we swore to them.</t>
+          <t>But when the in?hab?i?tants of m Gibeon heard what Joshua had done n to Jericho and o to Ai,</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Joshua 9:21</t>
+          <t>Joshua 9:4</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>And the leaders said to them, Let them live. So they became cutters of wood and drawers of water for all the congregation, just as the leaders had said of them.</t>
+          <t>they on their part acted with cunning and went and made ready provisions and took worn-out sacks for their donkeys, and wineskins, worn-out and torn and mended,</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Joshua 9:22</t>
+          <t>Joshua 9:5</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Joshua summoned them, and he said to them, Why did you deceive us, saying, We are very far from you, when you dwell among us</t>
+          <t>with worn-out, patched sandals on their feet, and worn-out clothes. And all their provisions were dry and crumbly.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Joshua 9:23</t>
+          <t>Joshua 9:6</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Now therefore you are cursed, and some of you shall never be anything but servants, cutters of wood and drawers of water for the house of my God.</t>
+          <t>And they went to Joshua in p the camp at Gilgal and said to him and to the men of Israel, We have come from a distant country, so now make a cov?enant with us.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Joshua 9:24</t>
+          <t>Joshua 9:7</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>They answered Joshua, Because it was told to your servants for a certainty that the Lord your God had commanded his servant Moses to give you all the land and to destroy all the in173 hab173 i173 tants of the land from before yo u so we feared greatly for our lives because of you and did this thing.</t>
+          <t>But the men of Israel said to q the Hivites, Perhaps you live among us; then r how can we make a cov?enant with you?</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Joshua 9:25</t>
+          <t>Joshua 9:8</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>And now, behold, we are in your hand. Whatever seems good and right in your sight to do to us, do it.</t>
+          <t>They said to Joshua, s We are your servants. And Joshua said to them, Who are you? And where do you come from?</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Joshua 9:26</t>
+          <t>Joshua 9:9</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>So he did this to them and delivered them out of the hand of the people of Israel, and they did not kill them.</t>
+          <t>They said to him, t From a very distant country your servants have come, because of the name of the Lord your God. u For we have heard a report of him, and all that he did in Egypt,</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Joshua 9:27</t>
+          <t>Joshua 9:10</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>But Joshua made them that day cutters of wood and drawers of water for the congregation and for the altar of the Lord , to this day, in the place that he should choose. The Sun Stands Still</t>
+          <t>v and all that he did to the two kings of the Amorites who were beyond the Jordan, to Sihon the king of Heshbon, and to Og king of Bashan, who lived in w Ashtaroth.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Joshua 10:1</t>
+          <t>Joshua 9:11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>As soon as Adoni- zedek, king of Jerusalem, heard how Joshua had captured Ai and had devoted it to destruction, doing to Ai and its king as he had done to Jericho and its king, and how the in173 hab173 i173 tants of Gibeon had made peace with Israel and were among them, 2</t>
+          <t>So our elders and all the in?hab?i?tants of our country said to us, Take provisions in your hand for the journey and go to meet them and say to them, We are your servants. Come now, make a cov?enant with us.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Joshua 10:3</t>
+          <t>Joshua 9:12</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>So Adoni- zedek king of Jerusalem sent to Hoham king of Hebron, to Piram king of Jarmuth, to Japhia king of Lachish, and to Debir king of Eglon, saying, 4</t>
+          <t>Here is our bread. It was still warm when we took it from our houses as our food for the journey on the day we set out to come to you, but now, behold, it is dry and crumbly.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Joshua 10:4</t>
+          <t>Joshua 9:13</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Come up to me and help me, and let us strike Gibeon. For it has made peace with Joshua and with the people of Israel. 5</t>
+          <t>These wineskins were new when we filled them, and behold, they have burst. And these garments and sandals of ours are worn out from the very long journey.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Joshua 10:5</t>
+          <t>Joshua 9:14</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Then the five kings of the Amorites, the king of Jerusalem, the king of Hebron, the king of Jarmuth, the king of Lachish, and the king of Eglon, gathered their forces and went up with all their armies and encamped against Gibeon and made war against it. 6</t>
+          <t>So the men took some of their provisions, but x did not ask counsel from the Lord.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Joshua 10:6</t>
+          <t>Joshua 9:15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>And the men of Gibeon sent to Joshua at the camp in Gilgal, saying, Do not relax your hand from your servants. Come up to us quickly and save us and help us, for all the kings of the Amorites who dwell in the hill country are gathered against us. 7</t>
+          <t>And Joshua y made peace with them and made a cov?enant with them, to let them live, and the leaders of the congregation swore to them.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Joshua 10:7</t>
+          <t>Joshua 9:16</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>So Joshua went up from Gilgal, he and all the people of war with him, and all the mighty men of valor. 8</t>
+          <t>At the end of three days after they had made a cov?enant with them, they heard that they were their neighbors z and that they lived among them.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Joshua 10:8</t>
+          <t>Joshua 9:17</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua, Do not fear them, for I have given them into your hands. Not a man of them shall stand before you. 9</t>
+          <t>And the people of Israel set out and reached their cities on the third day. a Now their cities were Gibeon, Chephirah, Beeroth, and Kiriath-jearim.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Joshua 10:9</t>
+          <t>Joshua 9:18</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>So Joshua came upon them suddenly, having marched up all night from Gilgal.</t>
+          <t>But the people of Israel did not attack them, because the leaders of the congregation had sworn to them by the Lord, the God of Israel. Then all the congregation murmured against the leaders.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Joshua 10:11</t>
+          <t>Joshua 9:19</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>And as they fled before Israel, while they were going down the ascent of Beth- horon, the Lord threw down large stones from heaven on them as far as Azekah, and they died. There were more who died because of the hailstones than the sons of Israel killed with the sword.</t>
+          <t>But all the leaders said to all the congregation, We have sworn to them by the Lord, the God of Israel, and now we may not touch them.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Joshua 10:12</t>
+          <t>Joshua 9:20</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>At that time Joshua spoke to the Lord in the day when the Lord gave the Amorites over to the sons of Israel, and he said in the sight of Israel, - Sun, stand still at Gibeon, - and moon, in the Valley of Aijalon. -</t>
+          <t>This we will do to them: let them live, lest b wrath be upon us, c because of the oath that we swore to them.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Joshua 10:13</t>
+          <t>Joshua 9:21</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>And the sun stood still, and the moon stopped, - until the nation took vengeance on their enemies. Is this not written in the Book of Jashar The sun stopped in the midst of heaven and did not hurry to set for about a whole day.</t>
+          <t>And the leaders said to them, Let them live. So they became d cutters of wood and drawers of water for all the congregation, just as the leaders e had said of them.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Joshua 10:15</t>
+          <t>Joshua 9:22</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>So Joshua returned, and all Israel with him, to the camp at Gilgal. Five Amorite Kings Executed</t>
+          <t>Joshua summoned them, and he said to them, Why did you deceive us, saying, f We are very far from you, when g you dwell among us?</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Joshua 10:16</t>
+          <t>Joshua 9:23</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>These five kings fled and hid themselves in the cave at Makkedah.</t>
+          <t>Now therefore you are cursed, and some of you shall never be anything but servants, h cutters of wood and drawers of water for the house of my God.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Joshua 10:17</t>
+          <t>Joshua 9:24</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>And it was told to Joshua, The five kings have been found, hidden in the cave at Makkedah.</t>
+          <t>They answered Joshua, Because it was told to your servants for a certainty that the Lord your God had i commanded his servant Moses to give you all the land and to destroy all the in?hab?i?tants of the land from before yo u so j we feared greatly for our lives because of you and did this thing.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Joshua 10:18</t>
+          <t>Joshua 9:25</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>And Joshua said, Roll large stones against the mouth of the cave and set men by it to guard them,</t>
+          <t>And now, behold, we are in your hand. Whatever seems good and right in your sight to do to us, do it.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Joshua 10:19</t>
+          <t>Joshua 9:26</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>but do not stay there yourselves. Pursue your enemies; attack their rear guard. Do not let them enter their cities, for the Lord your God has given them into your hand.</t>
+          <t>So he did this to them and delivered them out of the hand of the people of Israel, and they did not kill them.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Joshua 10:20</t>
+          <t>Joshua 9:27</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>When Joshua and the sons of Israel had finished striking them with a great blow until they were wiped out, and when the remnant that remained of them had entered into the fortified cities,</t>
+          <t>But Joshua made them that day k cutters of wood and drawers of water for the congregation and for the altar of the Lord, to this day, l in the place that he should choose. The Sun Stands Still</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Joshua 10:21</t>
+          <t>Joshua 10:1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>then all the people returned safe to Joshua in the camp at Makkedah. Not a man moved his tongue against any of the people of Israel.</t>
+          <t>As soon as Adoni-zedek, king of Jerusalem, heard how Joshua had captured Ai and had devoted it to destruction,</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Joshua 10:22</t>
+          <t>Joshua 10:2</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Then Joshua said, Open the mouth of the cave and bring those five kings out to me from the cave.</t>
+          <t>m doing to Ai and its king n as he had done to Jericho and its king, and o how the in?hab?i?tants of Gibeon had made peace with Israel and were among them,</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Joshua 10:23</t>
+          <t>Joshua 10:3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>And they did so, and brought those five kings out to him from the cave, the king of Jerusalem, the king of Hebron, the king of Jarmuth, the king of Lachish, and the king of Eglon.</t>
+          <t>p h e feared greatly, because Gibeon was a great city, like one of the royal cities, and because it was greater than Ai, and all its men were warriors.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Joshua 10:24</t>
+          <t>Joshua 10:3</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>And when they brought those kings out to Joshua, Joshua summoned all the men of Israel and said to the chiefs of the men of war who had gone with him, Come near; put your feet on the necks of these kings. Then they came near and put their feet on their necks.</t>
+          <t>So Adoni-zedek king of Jerusalem sent to Hoham king of Hebron, to Piram king of Jarmuth, to Japhia king of Lachish, and to Debir king of Eglon, saying,</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Joshua 10:25</t>
+          <t>Joshua 10:4</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>And Joshua said to them, Do not be afraid or dismayed; be strong and courageous. For thus the Lord will do to all your enemies against whom you fight.</t>
+          <t>Come up to me and help me, and let us strike Gibeon. For q it has made peace with Joshua and with the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Joshua 10:26</t>
+          <t>Joshua 10:5</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>And afterward Joshua struck them and put them to death, and he hanged them on five trees. And they hung on the trees until evening.</t>
+          <t>Then the five kings of the Amorites, the king of Jerusalem, the king of Hebron, the king of Jarmuth, the king of Lachish, and the king of Eglon, r gathered their forces and went up with all their armies and encamped against Gibeon and made war against it.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Joshua 10:27</t>
+          <t>Joshua 10:6</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>But at the time of the going down of the sun, Joshua commanded, and they took them down from the trees and threw them into the cave where they had hidden themselves, and they set large stones against the mouth of the cave, which remain to this very day.</t>
+          <t>And the men of Gibeon sent to Joshua s at the camp in Gilgal, saying, Do not relax your hand from your servants. Come up to us quickly and save us and help us, for all the kings of the Amorites who dwell in the hill country are gathered against us.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Joshua 10:28</t>
+          <t>Joshua 10:7</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>As for Makkedah, Joshua captured it on that day and struck it, and its king, with the edge of the sword. He devoted to destruction every person in it; he left none remaining. And he did to the king of Makkedah just as he had done to the king of Jericho. Conquest of Southern Canaan</t>
+          <t>So Joshua went up from Gilgal, he and t all the people of war with him, and all the mighty men of valor.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Joshua 10:29</t>
+          <t>Joshua 10:8</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Then Joshua and all Israel with him passed on from Makkedah to Libnah and fought against Libnah.</t>
+          <t>And the Lord said to Joshua, u Do not fear them, for I have given them into your hands. v Not a man of them shall stand before you.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Joshua 10:30</t>
+          <t>Joshua 10:9</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>And the Lord gave it also and its king into the hand of Israel. And he struck it with the edge of the sword, and every person in it; he left none remaining in it. And he did to its king as he had done to the king of Jericho.</t>
+          <t>So Joshua came upon them suddenly, having marched up all night from Gilgal.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Joshua 10:31</t>
+          <t>Joshua 10:10</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Then Joshua and all Israel with him passed on from Libnah to Lachish and laid siege to it and fought against it.</t>
+          <t>w And the Lord threw them into a panic before Israel, wh o struck them with a great blow at Gibeon and chased them by the way of x the ascent of Beth-horon and struck them as far as Azekah and Makkedah.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Joshua 10:32</t>
+          <t>Joshua 10:11</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>And the Lord gave Lachish into the hand of Israel, and he captured it on the second day and struck it with the edge of the sword, and every person in it, as he had done to Libnah.</t>
+          <t>And as they fled before Israel, while they were x going down the ascent of Beth-horon, y the Lord threw down large stones from heaven on them as far as Azekah, and they died. There were more who died because of the hailstones than the sons of Israel killed with the sword.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Joshua 10:33</t>
+          <t>Joshua 10:12</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Then Horam king of Gezer came up to help Lachish. And Joshua struck him and his people, until he left none remaining.</t>
+          <t>At that time Joshua spoke to the Lord in the day when the Lord gave the Amorites over to the sons of Israel, and he said in the sight of Israel, z Sun, stand still at Gibeon, and moon, in the Valley of Aijalon.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Joshua 10:34</t>
+          <t>Joshua 10:13</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Then Joshua and all Israel with him passed on from Lachish to Eglon. And they laid siege to it and fought against it.</t>
+          <t>And the sun stood still, and the moon stopped, until the nation took vengeance on their enemies. Is this not written in the Book of Jashar? The sun stopped in the midst of heaven and did not hurry to set for about a whole day.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Joshua 10:35</t>
+          <t>Joshua 10:14</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>And they captured it on that day, and struck it with the edge of the sword. And he devoted every person in it to destruction that day, as he had done to Lachish.</t>
+          <t>a There has been no day like it before or since, when the Lord heeded the voice of a man, for b the Lord fought for Israel.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Joshua 10:36</t>
+          <t>Joshua 10:15</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Then Joshua and all Israel with him went up from Eglon to Hebron. And they fought against it</t>
+          <t>So c Joshua returned, and all Israel with him, to the camp at Gilgal. Five Amorite Kings Executed</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Joshua 10:37</t>
+          <t>Joshua 10:16</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>and captured it and struck it with the edge of the sword, and its king and its towns, and every person in it. He left none remaining, as he had done to Eglon, and devoted it to destruction and every person in it.</t>
+          <t>These five kings fled and hid themselves in the cave at d Makkedah.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Joshua 10:38</t>
+          <t>Joshua 10:17</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Then Joshua and all Israel with him turned back to Debir and fought against it</t>
+          <t>And it was told to Joshua, The five kings have been found, hidden in the cave at Makkedah.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Joshua 10:39</t>
+          <t>Joshua 10:18</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>and he captured it with its king and all its towns. And they struck them with the edge of the sword and devoted to destruction every person in it; he left none remaining. Just as he had done to Hebron and to Libnah and its king, so he did to Debir and to its king.</t>
+          <t>And Joshua said, Roll large stones against the mouth of the cave and set men by it to guard them,</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Joshua 10:40</t>
+          <t>Joshua 10:19</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>So Joshua struck the whole land, the hill country and the Negeb and the lowland and the slopes, and all their kings. He left none remaining, but devoted to destruction all that breathed, just as the Lord God of Israel commanded.</t>
+          <t>but do not stay there yourselves. Pursue your enemies; e attack their rear guard. Do not let them enter their cities, for the Lord your God has given them into your hand.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Joshua 10:41</t>
+          <t>Joshua 10:20</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>And Joshua struck them from Kadesh- barnea as far as Gaza, and all the country of Goshen, as far as Gibeon.</t>
+          <t>When Joshua and the sons of Israel had finished striking them with a great blow f until they were wiped out, and when the remnant that remained of them had entered into the fortified cities,</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Joshua 10:42</t>
+          <t>Joshua 10:21</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>And Joshua captured all these kings and their land at one time, because the Lord God of Israel fought for Israel.</t>
+          <t>then all the people returned safe to Joshua in the camp at Makkedah. g Not a man moved his tongue against any of the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Joshua 11:1</t>
+          <t>Joshua 10:22</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>When Jabin, king of Hazor, heard of this, he sent to Jobab king of Madon, and to the king of Shimron, and to the king of Achshaph, 2</t>
+          <t>Then Joshua said, Open the mouth of the cave and bring those five kings out to me from the cave.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Joshua 11:2</t>
+          <t>Joshua 10:23</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>and to the kings who were in the northern hill country, and in the Arabah south of Chinneroth, and in the lowland, and in Naphoth- dor on the west, 3</t>
+          <t>And they did so, and brought those five kings out to him from the cave, the king of Jerusalem, the king of Hebron, the king of Jarmuth, the king of Lachish, and the king of Eglon.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Joshua 11:3</t>
+          <t>Joshua 10:24</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>to the Canaanites in the east and the west, the Amorites, the Hittites, the Perizzites, and the Jebusites in the hill country, and the Hivites under Hermon in the land of Mizpah. 4</t>
+          <t>And when they brought those kings out to Joshua, Joshua summoned all the men of Israel and said to the chiefs of the men of war who had gone with him, Come near; put your feet on the necks of these kings. Then they came near and put their feet on their necks.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Joshua 11:4</t>
+          <t>Joshua 10:25</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>And they came out with all their troops, a great horde, in number like the sand that is on the seashore, with very many horses and chariots. 5</t>
+          <t>And Joshua said to them, h Do not be afraid or dismayed; be strong and courageous. i For thus the Lord will do to all your enemies against whom you fight.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Joshua 11:5</t>
+          <t>Joshua 10:26</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>And all these kings joined their forces and came and encamped together at the waters of Merom to fight against Israel. 6</t>
+          <t>And afterward Joshua struck them and put them to death, and he hanged them on five trees. And j they hung on the trees until evening.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Joshua 11:6</t>
+          <t>Joshua 10:27</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>And the Lord said to Joshua, Do not be afraid of them, for tomorrow at this time I will give over all of them, slain, to Israel. You shall hamstring their horses and burn their chariots with fire. 7</t>
+          <t>But at the time of the going down of the sun, Joshua commanded, and k they took them down from the trees and threw them into the cave where they had hidden themselves, and they set large stones against the mouth of the cave, which remain to this very day.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Joshua 11:7</t>
+          <t>Joshua 10:28</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>So Joshua and all his warriors came suddenly against them by the waters of Merom and fell upon them. 8</t>
+          <t>As for l Makkedah, Joshua captured it on that day and struck it, and its king, with the edge of the sword. He devoted to destruction every person in it; he left none remaining. And he did to the king of Makkedah m just as he had done to the king of Jericho. Conquest of Southern Canaan</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Joshua 11:8</t>
+          <t>Joshua 10:29</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>And the Lord gave them into the hand of Israel, who struck them and chased them as far as Great Sidon and Misrephoth- maim, and eastward as far as the Valley of Mizpeh. And they struck them until he left none remaining. 9</t>
+          <t>Then Joshua and all Israel with him passed on from Makkedah to n Libnah and fought against Libnah.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Joshua 11:9</t>
+          <t>Joshua 10:30</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>And Joshua did to them just as the Lord said to him: he hamstrung their horses and burned their chariots with fire.</t>
+          <t>And the Lord gave it also and its king into the hand of Israel. And he struck it with the edge of the sword, and every person in it; he left none remaining in it. And he did to its king m as he had done to the king of Jericho.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Joshua 11:10</t>
+          <t>Joshua 10:31</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>And Joshua turned back at that time and captured Hazor and struck its king with the sword, for Hazor formerly was the head of all those kingdoms.</t>
+          <t>Then Joshua and all Israel with him passed on from Libnah to o Lachish and laid siege to it and fought against it.</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Joshua 11:11</t>
+          <t>Joshua 10:32</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>And they struck with the sword all who were in it, devoting them to destruction; there was none left that breathed. And he burned Hazor with fire.</t>
+          <t>And the Lord gave Lachish into the hand of Israel, and he captured it on the second day and struck it with the edge of the sword, and every person in it, as he had done to Libnah.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Joshua 11:12</t>
+          <t>Joshua 10:33</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>And all the cities of those kings, and all their kings, Joshua captured, and struck them with the edge of the sword, devoting them to destruction, just as Moses the servant of the Lord had commanded.</t>
+          <t>Then Horam king of p Gezer came up to help Lachish. And Joshua struck him and his people, until he left none remaining.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Joshua 11:13</t>
+          <t>Joshua 10:34</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>But none of the cities that stood on mounds did Israel burn, except Hazor alone; that Joshua burned.</t>
+          <t>Then Joshua and all Israel with him passed on from Lachish to q Eglon. And they laid siege to it and fought against it.</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Joshua 11:14</t>
+          <t>Joshua 10:35</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>And all the spoil of these cities and the livestock, the people of Israel took for their plunder. But every person they struck with the edge of the sword until they had destroyed them, and they did not leave any who breathed.</t>
+          <t>And they captured it on that day, and struck it with the edge of the sword. And he devoted every person in it to destruction that day, as he had done to Lachish.</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Joshua 11:16</t>
+          <t>Joshua 10:36</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>So Joshua took all that land, the hill country and all the Negeb and all the land of Goshen and the lowland and the Arabah and the hill country of Israel and its lowland</t>
+          <t>Then Joshua and all Israel with him went up from Eglon to r Hebron. And they fought against it</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Joshua 11:18</t>
+          <t>Joshua 10:37</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Joshua made war a long time with all those kings.</t>
+          <t>and captured it and struck it with the edge of the sword, and its king and its towns, and every person in it. He left none remaining, as he had done to Eglon, and devoted it to destruction and every person in it.</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Joshua 11:19</t>
+          <t>Joshua 10:38</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>There was not a city that made peace with the people of Israel except the Hivites, the in173 hab173 i173 tants of Gibeon. They took them all in battle.</t>
+          <t>Then Joshua and all Israel with him turned back to s Debir and fought against it</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Joshua 11:20</t>
+          <t>Joshua 10:39</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>For it was the Lord's doing to harden their hearts that they should come against Israel in battle, in order that they should be devoted to destruction and should receive no mercy but be destroyed, just as the Lord commanded Moses.</t>
+          <t>and he captured it with its king and all its towns. And they struck them with the edge of the sword and devoted to destruction every person in it; he left none remaining. Just as he had done to Hebron and to Libnah and its king, so he did to Debir and to its king.</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Joshua 11:21</t>
+          <t>Joshua 10:40</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>And Joshua came at that time and cut off the Anakim from the hill country, from Hebron, from Debir, from Anab, and from all the hill country of Judah, and from all the hill country of Israel. Joshua devoted them to destruction with their cities.</t>
+          <t>So Joshua struck the whole land, the hill country and the Negeb and the lowland t and the slopes, and all their kings. He left none remaining, u but devoted to destruction all that breathed, just as the Lord God of Israel commanded.</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Joshua 11:22</t>
+          <t>Joshua 10:41</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>There was none of the Anakim left in the land of the people of Israel. Only in Gaza, in Gath, and in Ashdod did some remain.</t>
+          <t>And Joshua struck them from v Kadesh-barnea as far as Gaza, and all the country of w Goshen, as far as Gibeon.</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Joshua 11:23</t>
+          <t>Joshua 10:42</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>So Joshua took the whole land, according to all that the Lord had spoken to Moses. And Joshua gave it for an inheritance to Israel according to their tribal allotments. And the land had rest from war. Kings Defeated by Moses</t>
+          <t>And Joshua captured all these kings and their land at one time, x because the Lord God of Israel fought for Israel.</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Joshua 12:1</t>
+          <t>Joshua 10:43</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Now these are the kings of the land whom the people of Israel defeated and took possession of their land beyond the Jordan toward the sunrise, from the Valley of the Arnon to Mount Hermon, with all the Arabah eastward: 2</t>
+          <t>y Then Joshua returned, and all Israel with him, to the camp at Gilgal. Conquests in Northern Canaan</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Joshua 12:3</t>
+          <t>Joshua 11:1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>and the Arabah to the Sea of Chinneroth eastward, and in the direction of Beth- jeshimoth, to the Sea of the Arabah, the Salt Sea, southward to the foot of the slopes of Pisgah; 4</t>
+          <t>When Jabin, king of Hazor, heard of this, he z sent to Jobab king of Madon, and to the king of Shimron, and to the king of Achshaph,</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Joshua 12:4</t>
+          <t>Joshua 11:2</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>and O16 g king of Bashan, one of the remnant of the Rephaim, who lived at Ashtaroth and at Edrei 5</t>
+          <t>and to the kings who were in the northern hill country, and in the a Arabah south of b Chinneroth, and in the lowland, and c in Naphoth-dor on the d west,</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Joshua 12:5</t>
+          <t>Joshua 11:3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>and ruled over Mount Hermon and Salecah and all Bashan to the boundary of the Geshurites and the Maacathites, and over half of Gilead to the boundary of Sihon king of Heshbon. 6</t>
+          <t>to the Canaanites in the east and the west, the Amorites, the Hittites, the Perizzites, and the e Jebusites in the hill country, and the f Hivites under g Hermon in the land of h Mizpah.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Joshua 12:7</t>
+          <t>Joshua 11:4</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>And these are the kings of the land whom Joshua and the people of Israel defeated on the west side of the Jordan, from Baal- gad in the Valley of Lebanon to Mount Halak, that rises toward Seir (and Joshua gave their land to the tribes of Israel as a possession according to their allotments, 8</t>
+          <t>And they came out with all their troops, a great horde, in number i like the sand that is on the seashore, with very many horses and chariots.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Joshua 12:14</t>
+          <t>Joshua 11:5</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>the king of Hormah, one; the king of Arad, one;</t>
+          <t>And all these kings joined their forces and came and encamped together at the waters of Merom to fight against Israel.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Joshua 12:17</t>
+          <t>Joshua 11:6</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>the king of Tappuah, one; the king of Hepher, one;</t>
+          <t>And the Lord said to Joshua, j Do not be afraid of them, for tomorrow at this time I will give over all of them, slain, to Israel. You shall k hamstring their horses and burn their l chariots with fire.</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Joshua 12:18</t>
+          <t>Joshua 11:7</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>the king of Aphek, one; the king of Lasharon, one;</t>
+          <t>So Joshua and all his warriors came m suddenly against them by the waters of Merom and fell upon them.</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Joshua 12:22</t>
+          <t>Joshua 11:8</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>the king of Kedesh, one; the king of Jokneam in Carmel, one;</t>
+          <t>And the Lord gave them into the hand of Israel, who struck them and chased them as far as n Great Sidon and o Misrephoth-maim, and eastward as far as the Valley of p Mizpeh. And they struck them until he left none remaining.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Joshua 12:24</t>
+          <t>Joshua 11:9</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>the king of Tirzah, one: in all, thirty- one kings. Land Still to Be Conquered</t>
+          <t>And Joshua did to them q just as the Lord said to him: he hamstrung their horses and burned their chariots with fire.</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Joshua 13:1</t>
+          <t>Joshua 11:10</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Now Joshua was old and advanced in years, and the Lord said to him, You are old and advanced in years, and there remains yet very much land to possess. 2</t>
+          <t>And Joshua turned back at that time and captured r Hazor and struck its king with the sword, for Hazor formerly was the head of all those kingdoms.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Joshua 13:3</t>
+          <t>Joshua 11:11</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>(from the Shihor, which is east of Egypt, northward to the boundary of Ekron, it is counted as Canaanite; there are five rulers of the Philistines, those of Gaza, Ashdod, Ashkelon, Gath, and Ekron), and those of the Avvim, 4</t>
+          <t>And they struck with the sword all who were in it, devoting them to destruction;</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Joshua 13:4</t>
+          <t>Joshua 11:12</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>in the south, all the land of the Canaanites, and Mearah that belongs to the Sidonians, to Aphek, to the boundary of the Amorites, 5</t>
+          <t>s there was none left that breathed. And he burned Hazor with fire.</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Joshua 13:5</t>
+          <t>Joshua 11:12</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>and the land of the Gebalites, and all Lebanon, toward the sunrise, from Baal- gad below Mount Hermon to Lebo- hamath, 6</t>
+          <t>And all the cities of those kings, and all their kings, Joshua captured, and struck them with the edge of the sword, devoting them to destruction, t just as Moses the servant of the Lord had commanded.</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Joshua 13:6</t>
+          <t>Joshua 11:13</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>all the in173 hab173 i173 tants of the hill country from Lebanon to Misrephoth- maim, even all the Sidonians. I myself will drive them out from before the people of Israel. Only allot the land to Israel for an inheritance, as I have commanded you. 7</t>
+          <t>But none of the cities that stood on mounds did Israel burn, except Hazor alone; that Joshua burned.</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Joshua 13:7</t>
+          <t>Joshua 11:14</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Now therefore divide this land for an inheritance to the nine tribes and half the tribe of Manasseh. The Inheritance East of the Jordan 8</t>
+          <t>And all the spoil of these cities and the livestock, the people of Israel took for their plunder. But every person they struck with the edge of the sword until they had destroyed them, and they did not leave any who breathed.</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Joshua 13:8</t>
+          <t>Joshua 11:15</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>With the other half of the tribe of Manasse h the Reubenites and the Gadites received their inheritance, which Moses gave them, beyond the Jordan eastward, as Moses the servant of the Lord gave them: 9</t>
+          <t>u Just as the Lord had commanded Moses his servant, v so Moses commanded Joshua, w and so Joshua did. He left nothing undone of all that the Lord had commanded Moses.</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Joshua 13:11</t>
+          <t>Joshua 11:16</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>and Gilead, and the region of the Geshurites and Maacathites, and all Mount Hermon, and all Bashan to Salecah;</t>
+          <t>So Joshua took all that land, x the hill country and all the Negeb and y all the land of Goshen z and the lowland z and the Arabah a and the hill country of Israel and its lowland</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Joshua 13:15</t>
+          <t>Joshua 11:17</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>And Moses gave an inheritance to the tribe of the people of Reuben according to their clans.</t>
+          <t>b from Mount Halak, which rises toward Seir, as far as c Baal-gad in the Valley of Lebanon below d Mount Hermon. And he captured e all their kings and struck them and put them to death.</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Joshua 13:16</t>
+          <t>Joshua 11:18</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>So their territory was from Aroer, which is on the edge of the Valley of the Arnon, and the city that is in the middle of the valley, and all the tableland by Medeba;</t>
+          <t>Joshua made war f a long time with all those kings.</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Joshua 13:17</t>
+          <t>Joshua 11:19</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>with Heshbon, and all its cities that are in the tableland; Dibon, and Bamoth- baal, and Beth- baal- meon,</t>
+          <t>There was not a city that made peace with the people of Israel except g the Hivites, the in?hab?i?tants of Gibeon. They took them all in battle.</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Joshua 13:18</t>
+          <t>Joshua 11:20</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>and Jahaz, and Kedemoth, and Mephaath,</t>
+          <t>For it was the Lord s doing h to harden their hearts that they should come against Israel in battle, in order that they should be devoted to destruction and should receive no mercy but be destroyed, i just as the Lord commanded Moses.</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Joshua 13:19</t>
+          <t>Joshua 11:21</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>and Kiriathaim, and Sibmah, and Zereth- shahar on the hill of the valley,</t>
+          <t>And Joshua came at that time and cut off j the Anakim from the hill country, from Hebron, from Debir, from Anab, and from all the hill country of Judah, and from all the hill country of Israel. Joshua devoted them to destruction with their cities.</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Joshua 13:20</t>
+          <t>Joshua 11:22</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>and Beth- peor, and the slopes of Pisgah, and Beth- jeshimoth,</t>
+          <t>There was none of the Anakim left in the land of the people of Israel. Only in Gaza, k in Gath, and in Ashdod did some remain.</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Joshua 13:21</t>
+          <t>Joshua 11:23</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>that is, all the cities of the tableland, and all the kingdom of Sihon king of the Amorites, who reigned in Heshbon, whom Moses defeated with the leaders of Midian, Evi and Rekem and Zur and Hur and Reba, the princes of Sihon, who lived in the land.</t>
+          <t>So Joshua took the whole land, l according to all that the Lord had spoken to Moses. m And Joshua gave it for an inheritance to Israel n according to their tribal allotments. And the land had rest from war. Kings Defeated by Moses</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Joshua 13:23</t>
+          <t>Joshua 12:1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>And the border of the people of Reuben was the Jordan as a boundary. This was the inheritance of the people of Reuben, according to their clans with their cities and villages.</t>
+          <t>Now these are the kings of the land whom the people of Israel defeated and took possession of their land beyond the Jordan toward the sunrise, from o the Valley of the Arnon to Mount Hermon, with all p the Arabah eastward:</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Joshua 13:24</t>
+          <t>Joshua 12:2</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Moses gave an inheritance also to the tribe of Gad, to the people of Gad, according to their clans.</t>
+          <t>q Sihon king of the Amorites who lived at Heshbon and ruled from Aroer, which is on the edge of the Valley of the Arnon, and r from the middle of the valley as far as the s river Jabbok, the boundary of the Ammonites, that is, half of Gilead,</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Joshua 13:26</t>
+          <t>Joshua 12:3</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>and from Heshbon to Ramath- mizpeh and Betonim, and from Mahanaim to the territory of Debir,</t>
+          <t>and p the Arabah t to the Sea of Chinneroth eastward, and in the direction of Beth-jeshimoth, to the Sea of the Arabah, the Salt Sea, southward to the foot of u the slopes of Pisgah;</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Joshua 13:27</t>
+          <t>Joshua 12:4</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>and in the valley Beth- haram, Beth- nimrah, Succoth, and Zaphon, the rest of the kingdom of Sihon king of Heshbon, having the Jordan as a boundary, to the lower end of the Sea of Chinnereth, eastward beyond the Jordan.</t>
+          <t>and v O g king of Bashan, one of the remnant of w the Rephaim, x who lived at Ashtaroth and at Edrei</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Joshua 13:28</t>
+          <t>Joshua 12:5</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>This is the inheritance of the people of Gad according to their clans, with their cities and villages.</t>
+          <t>and ruled over y Mount Hermon and z Salecah and all Bashan a to the boundary of the Geshurites and the Maacathites, and over half of Gilead to the boundary of Sihon king of Heshbon.</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Joshua 13:29</t>
+          <t>Joshua 12:6</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>And Moses gave an inheritance to the half- tribe of Manasseh. It was allotted to the half- tribe of the people of Manasseh according to their clans.</t>
+          <t>b Moses, the servant of the Lord, and the people of Israel defeated them. And Moses the servant of the Lord c gave their land for a possession to the Reubenites and the Gadites and the half-tribe of Manasseh. Kings Defeated by Joshua</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Joshua 13:30</t>
+          <t>Joshua 12:7</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Their region extended from Mahanaim, through all Bashan, the whole kingdom of Og king of Bashan, and all the towns of Jair, which are in Bashan, sixty cities,</t>
+          <t>And these are the kings of the land whom Joshua and the people of Israel defeated on the west side of the Jordan, from Baal-gad in the Valley of Lebanon to d Mount Halak, that rises toward Seir (and Joshua gave their land to the tribes of Israel as a possession e according to their allotments,</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Joshua 13:31</t>
+          <t>Joshua 12:8</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>and half Gilead, and Ashtaroth, and Edrei, the cities of the kingdom of Og in Bashan. These were allotted to the people of Machir the son of Manasseh for the half of the people of Machir according to their clans.</t>
+          <t>f in the hill country, in the lowland, in the Arabah, in the slopes, in the wilderness, and in the Negeb, the land of g the Hittites, the Amorites, the Canaanites, the Perizzites, the Hivites, and the Jebusites):</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Joshua 13:321600</t>
+          <t>Joshua 12:9</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>These are the inheritances that Moses distributed in the plains of Moab, beyond the Jordan east of Jericho.</t>
+          <t>h the king of Jericho, one; i the king of Ai, which is beside Bethel, one;</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Joshua 14:1</t>
+          <t>Joshua 12:10</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>These are the inheritances that the people of Israel received in the land of Canaan, which Eleazar the priest and Joshua the son of Nun and the heads of the fathers houses of the tribes of the people of Israel gave them to inherit. 2</t>
+          <t>j the king of Jerusalem, one; j the king of Hebron, one;</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Joshua 14:2</t>
+          <t>Joshua 12:11</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Their inheritance was by lot, just as the Lord had commanded by the hand of Moses for the nine and one- half tribes. 3</t>
+          <t>j the king of Jarmuth, one; j the king of Lachish, one;</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Joshua 14:4</t>
+          <t>Joshua 12:12</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>For the people of Joseph were two tribes, Manasseh and Ephraim. And no portion was given to the Levites in the land, but only cities to dwell in, with their pasturelands for their livestock and their substance. 5</t>
+          <t>j the king of Eglon, one; k the king of Gezer, one;</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Joshua 14:5</t>
+          <t>Joshua 12:13</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>The people of Israel did as the Lord commanded Moses; they allotted the land. Caleb's Request and Inheritance 6</t>
+          <t>l the king of Debir, one; the king of Geder, one;</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Joshua 14:6</t>
+          <t>Joshua 12:14</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Then the people of Judah came to Joshua at Gilgal. And Caleb the son of Jephunneh the Kenizzite said to him, You know what the Lord said to Moses the man of God in Kadesh- barnea concerning you and me. 7</t>
+          <t>the king of Hormah, one; the king of Arad, one;</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Joshua 14:7</t>
+          <t>Joshua 12:15</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>I was forty years old when Moses the servant of the Lord sent me from Kadesh- barnea to spy out the land, and I brought him word again as it was in my heart. 8</t>
+          <t>m the king of Libnah, one; the king of Adullam, one;</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Joshua 14:8</t>
+          <t>Joshua 12:16</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>But my brothers who went up with me made the heart of the people melt; yet I wholly followed the Lord my God. 9</t>
+          <t>n the king of Makkedah, one; o the king of Bethel, one;</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Joshua 14:9</t>
+          <t>Joshua 12:17</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>And Moses swore on that day, saying, Surely the land on which your foot has trodden shall be an inheritance for you and your children forever, because you have wholly followed the Lord my God.</t>
+          <t>the king of Tappuah, one; the king of Hepher, one;</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Joshua 14:10</t>
+          <t>Joshua 12:18</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>And now, behold, the Lord has kept me alive, just as he said, these forty- five years since the time that the Lord spoke this word to Moses, while Israel walked in the wilderness. And now, behold, I m this day eighty- five years old.</t>
+          <t>the king of Aphek, one; the king of Lasharon, one;</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Joshua 14:12</t>
+          <t>Joshua 12:19</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>So now give me this hill country of which the Lord spoke on that day, for you heard on that day how the Anakim were there, with great fortified cities. It may be that the Lord will be with me, and I shall drive them out just as the Lord said.</t>
+          <t>p the king of Madon, one; q the king of Hazor, one;</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Joshua 14:13</t>
+          <t>Joshua 12:20</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Then Joshua blessed him, and he gave Hebron to Caleb the son of Jephunneh for an inheritance.</t>
+          <t>p the king of Shimron-meron, one; p the king of Achshaph, one;</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Joshua 14:14</t>
+          <t>Joshua 12:21</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Therefore Hebron became the inheritance of Caleb the son of Jephunneh the Kenizzite to this day, because he wholly followed the Lord , the God of Israel.</t>
+          <t>r the king of Taanach, one; r the king of Megiddo, one;</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Joshua 15:1</t>
+          <t>Joshua 12:22</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>The allotment for the tribe of the people of Judah according to their clans reached southward to the boundary of Edom, to the wilderness of Zin at the farthest south. 2</t>
+          <t>the king of Kedesh, one; the king of Jokneam in Carmel, one;</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Joshua 15:2</t>
+          <t>Joshua 12:23</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>And their south boundary ran from the end of the Salt Sea, from the bay that faces southward. 3</t>
+          <t>r the king of Dor in s Naphath-dor, one; the king of Goiim in Galilee, one;</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Joshua 15:3</t>
+          <t>Joshua 12:24</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>It goes out southward of the ascent of Akrabbim, passes along to Zin, and goes up south of Kadesh- barnea, along by Hezron, up to Addar, turns about to Karka, 4</t>
+          <t>the king of Tirzah, one: in all, thirty-one kings. Land Still to Be Conquered</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Joshua 15:4</t>
+          <t>Joshua 13:1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>passes along to Azmon, goes out by the Brook of Egypt, and comes to its end at the sea. This shall be your south boundary. 5</t>
+          <t>Now Joshua t was old and advanced in years, and the Lord said to him, You are old and advanced in years, and there remains yet very much land u to possess.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Joshua 15:5</t>
+          <t>Joshua 13:2</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>And the east boundary is the Salt Sea, to the mouth of the Jordan. And the boundary on the north side runs from the bay of the sea at the mouth of the Jordan. 6</t>
+          <t>v This is the land that yet remains: all the w regions of the Philistines, and all those of the Geshurites</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Joshua 15:6</t>
+          <t>Joshua 13:3</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>And the boundary goes up to Beth- hoglah and passes along north of Beth- arabah. And the boundary goes up to the stone of Bohan the son of Reuben. 7</t>
+          <t>, and those of z the Avvim,</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Joshua 15:7</t>
+          <t>Joshua 13:4</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>And the boundary goes up to Debir from the Valley of Achor, and so northward, turning toward Gilgal, which is opposite the ascent of Adummim, which is on the south side of the valley. And the boundary passes along to the waters of En- shemesh and ends at En- rogel. 8</t>
+          <t>in the south, all the land of the Canaanites, and Mearah that belongs to the Sidonians, to Aphek, to the boundary of a the Amorites,</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Joshua 15:8</t>
+          <t>Joshua 13:5</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Then the boundary goes up by the Valley of the Son of Hinnom at the southern shoulder of the Jebusite ( that is, Jerusalem). And the boundary goes up to the top of the mountain that lies over against the Valley of Hinnom, on the west, at the northern end of the Valley of Rephaim. 9</t>
+          <t>and the land of the b Gebalites, and all Lebanon, toward the sunrise, from c Baal-gad below Mount Hermon to d Lebo-hamath,</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Joshua 15:9</t>
+          <t>Joshua 13:6</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Then the boundary extends from the top of the mountain to the spring of the waters of Nephtoah, and from there to the cities of Mount Ephron. Then the boundary bends around to Baalah ( that is, Kiriath- jearim).</t>
+          <t>all the in?hab?i?tants of the hill country from Lebanon to e Misrephoth-maim, even all the Sidonians. I myself will drive f them out from before the people of Israel. Only g allot the land to Israel h for an inheritance, as I have commanded you.</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Joshua 15:10</t>
+          <t>Joshua 13:7</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>And the boundary circles west of Baalah to Mount Seir, passes along to the northern shoulder of Mount Jearim (that is, Chesalon), and goes down to Beth- shemesh and passes along by Timnah.</t>
+          <t>Now therefore i divide this land for an inheritance to the nine tribes and half the tribe of Manasseh. The Inheritance East of the Jordan</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Joshua 15:11</t>
+          <t>Joshua 13:8</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>The boundary goes out to the shoulder of the hill north of Ekron, then the boundary bends around to Shikkeron and passes along to Mount Baalah and goes out to Jabneel. Then the boundary comes to an end at the sea.</t>
+          <t>With the other half of the tribe of Manasse h the Reubenites and the Gadites received their inheritance, j which Moses gave them, beyond the Jordan eastward, as Moses the servant of the Lord gave them:</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Joshua 15:12</t>
+          <t>Joshua 13:9</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>And the west boundary was the Great Sea with its coastline. This is the boundary around the people of Judah according to their clans.</t>
+          <t>k from Aroer, which is on the edge of the Valley of the Arnon, and the city that is in the middle of the valley, and l all the tableland of Medeba as far as Dibon;</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Joshua 15:13</t>
+          <t>Joshua 13:10</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>According to the commandment of the Lord to Joshua, he gave to Caleb the son of Jephunneh a portion among the people of Judah, Kiriath- arba, that is, Hebron (Arba was the father of Anak).</t>
+          <t>m and all the cities of Sihon king of the Amorites, who reigned in Heshbon, as far as the boundary of the Ammonites;</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Joshua 15:14</t>
+          <t>Joshua 13:11</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>And Caleb drove out from there the three sons of Anak, Sheshai and Ahiman and Talmai, the descendants of Anak.</t>
+          <t>and Gilead, and the n region of the Geshurites and Maacathites, and all Mount Hermon, and n all Bashan to Salecah;</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Joshua 15:15</t>
+          <t>Joshua 13:12</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>And he went up from there against the in173 hab173 i173 tants of Debir. Now the name of Debir formerly was Kiriath- sepher.</t>
+          <t>n all the kingdom of Og in Bashan, who reigned in Ashtaroth and in Edrei; o these Moses had struck and driven out.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Joshua 15:16</t>
+          <t>Joshua 13:13</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>And Caleb said, He who attacks Kiriath- sepher and captures it, I will give him Achsah my daughter as wife.</t>
+          <t>p Yet the people of Israel did not drive out the Geshurites or the Maacathites, but Geshur and Maacath dwell in the midst of Israel to this day.</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Joshua 15:18</t>
+          <t>Joshua 13:14</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>When she came to him, she urged him to ask her father for a field. And she dismounted from her donkey, and Caleb said to her, What do you want</t>
+          <t>q To the tribe of Levi alone Moses gave no inheritance. The offerings by fire to the Lord God of Israel are their inheritance, as he said to him.</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Joshua 15:19</t>
+          <t>Joshua 13:15</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>She said to him, Give me a blessing. Since you have given me the land of the Negeb, give me also springs of water. And he gave her the upper springs and the lower springs.</t>
+          <t>And Moses gave an inheritance to the tribe of the people of Reuben according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Joshua 15:20</t>
+          <t>Joshua 13:16</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>This is the inheritance of the tribe of the people of Judah according to their clans.</t>
+          <t>So their territory was from Aroer, r which is on the edge of the Valley of the Arnon, and the city that is in the middle of the valley, and all the tableland by s Medeba;</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Joshua 15:21</t>
+          <t>Joshua 13:17</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>The cities belonging to the tribe of the people of Judah in the extreme south, toward the boundary of Edom, were Kabzeel, Eder, Jagur,</t>
+          <t>with Heshbon, and all its cities that are in the tableland; s Dibon, and Bamoth-baal, and Beth-baal-meon,</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Joshua 15:22</t>
+          <t>Joshua 13:18</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Kinah, Dimonah, Adadah,</t>
+          <t>t and Jahaz, and Kedemoth, and Mephaath,</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Joshua 15:23</t>
+          <t>Joshua 13:19</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Kedesh, Hazor, Ithnan,</t>
+          <t>and u Kiriathaim, and u Sibmah, and Zereth-shahar on the hill of the valley,</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Joshua 15:25</t>
+          <t>Joshua 13:20</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Hazor- hadattah, Kerioth- hezron (that is, Hazor),</t>
+          <t>and v Beth-peor, and w the slopes of Pisgah, and w Beth-jeshimoth,</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Joshua 15:26</t>
+          <t>Joshua 13:21</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Amam, Shema, Moladah,</t>
+          <t>that is, x all the cities of the tableland, and all the kingdom of Sihon king of the Amorites, who reigned in Heshbon, y whom Moses defeated with z the leaders of Midian, Evi and Rekem and Zur and Hur and Reba, the princes of Sihon, who lived in the land.</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Joshua 15:27</t>
+          <t>Joshua 13:22</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Hazar- gaddah, Heshmon, Beth- pelet,</t>
+          <t>z Balaam also, the son of Beor, the one who practiced divination, was killed with the sword by the people of Israel among the rest of their slain.</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Joshua 15:28</t>
+          <t>Joshua 13:23</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Hazar- shual, Beersheba, Biziothiah,</t>
+          <t>And the border of the people of Reuben was the Jordan as a boundary. This was the inheritance of the people of Reuben, according to their clans with their cities and villages.</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Joshua 15:29</t>
+          <t>Joshua 13:24</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Baalah, Iim, Ezem,</t>
+          <t>Moses gave an inheritance also to the tribe of Gad, to the people of Gad, according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Joshua 15:30</t>
+          <t>Joshua 13:25</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Eltolad, Chesil, Hormah,</t>
+          <t>a Their territory was Jazer, and all the cities of Gilead, and half the land of the Ammonites, to Aroer, which is east of b Rabbah,</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Joshua 15:32</t>
+          <t>Joshua 13:26</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Lebaoth, Shilhim, Ain, and Rimmon: in all, twenty- nine cities with their villages.</t>
+          <t>and from Heshbon to Ramath-mizpeh and Betonim, and from c Mahanaim to the territory of Debir,</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Joshua 15:33</t>
+          <t>Joshua 13:27</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>And in the lowland, Eshtaol, Zorah, Ashnah,</t>
+          <t>and in the valley Beth-haram, Beth-nimrah, d Succoth, and Zaphon, the rest of the kingdom of Sihon king of Heshbon, having the Jordan as a boundary, to the lower end of the Sea of e Chinnereth, eastward beyond the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Joshua 15:34</t>
+          <t>Joshua 13:28</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Zanoah, En- gannim, Tappuah, Enam,</t>
+          <t>This is the inheritance of the people of Gad according to their clans, with their cities and villages.</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Joshua 15:36</t>
+          <t>Joshua 13:29</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Shaaraim, Adithaim, Gederah, Gederothaim: fourteen cities with their villages.</t>
+          <t>And Moses gave an inheritance to the half-tribe of Manasseh. It was allotted to the half-tribe of the people of Manasseh according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Joshua 15:37</t>
+          <t>Joshua 13:30</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Zenan, Hadashah, Migdal- gad,</t>
+          <t>Their region extended from f Mahanaim, through all Bashan, the whole kingdom of Og king of Bashan, and all g the towns of Jair, which are in Bashan, sixty cities,</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Joshua 15:38</t>
+          <t>Joshua 13:31</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Dilean, Mizpeh, Joktheel,</t>
+          <t>and half Gilead, and h Ashtaroth, and Edrei, the cities of the kingdom of Og in Bashan. These were allotted to the people of i Machir the son of Manasseh for the half of the people of Machir according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Joshua 15:40</t>
+          <t>Joshua 13:32</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Cabbon, Lahmam, Chitlish,</t>
+          <t>These are the inheritances that Moses distributed j in the plains of Moab, beyond the Jordan east of Jericho.</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Joshua 15:41</t>
+          <t>Joshua 13:33</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Gederoth, Beth- dagon, Naamah, and Makkedah: sixteen cities with their villages.</t>
+          <t>k But to the tribe of Levi Moses gave no inheritance; the Lord God of Israel is their inheritance, k just as he said to them. The Inheritance West of the Jordan</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Joshua 15:43</t>
+          <t>Joshua 14:1</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Iphtah, Ashnah, Nezib,</t>
+          <t>These are the inheritances that the people of Israel received in the land of Canaan, which l Eleazar the priest and Joshua the son of Nun and the heads of the fathers houses of the tribes of the people of Israel gave them to inherit.</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Joshua 15:46</t>
+          <t>Joshua 14:2</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>from Ekron to the sea, all that were by the side of Ashdod, with their villages.</t>
+          <t>Their inheritance was m by lot, just as the Lord had commanded by the hand of Moses for the nine and one-half tribes.</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Joshua 15:48</t>
+          <t>Joshua 14:3</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>And in the hill country, Shamir, Jattir, Socoh,</t>
+          <t>n For Moses had given an inheritance to the two and one-half tribes beyond the Jordan, o but to the Levites he gave no inheritance among them.</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Joshua 15:49</t>
+          <t>Joshua 14:4</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Dannah, Kiriath- sannah ( that is, Debir),</t>
+          <t>For p the people of Joseph were two tribes, Manasseh and Ephraim. And no portion was given to the Levites in the land, but only cities to dwell in, with their pasturelands for their livestock and their substance.</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Joshua 15:50</t>
+          <t>Joshua 14:5</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Anab, Eshtemoh, Anim,</t>
+          <t>The people of Israel did q as the Lord commanded Moses; they allotted the land. Caleb s Request and Inheritance</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Joshua 15:52</t>
+          <t>Joshua 14:6</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Arab, Dumah, Eshan,</t>
+          <t>Then the people of Judah came to Joshua at Gilgal. And Caleb the son of Jephunneh the r Kenizzite said to him, You know s what the Lord said to Moses the man of God in Kadesh-barnea concerning you and me.</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Joshua 15:53</t>
+          <t>Joshua 14:7</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Janim, Beth- tappuah, Aphekah,</t>
+          <t>I was forty years old when Moses the servant of the Lord t sent me from Kadesh-barnea to spy out the land, and I brought him word again as it was in my heart.</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Joshua 15:54</t>
+          <t>Joshua 14:8</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Humtah, Kiriath- arba (that is, Hebron), and Zior: nine cities with their villages.</t>
+          <t>But u my brothers who went up with me made the heart of the people melt; yet I wholly followed the Lord my God.</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Joshua 15:56</t>
+          <t>Joshua 14:9</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Jezreel, Jokdeam, Zanoah,</t>
+          <t>And Moses swore on that day, saying, v Surely the land w on which your foot has trodden shall be an inheritance for you and your children forever, because you have wholly followed the Lord my God.</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Joshua 15:57</t>
+          <t>Joshua 14:10</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Kain, Gibeah, and Timnah: ten cities with their villages.</t>
+          <t>And now, behold, the Lord has kept me alive, x just as he said, these y forty-five years since the time that the Lord spoke this word to Moses, while Israel walked in the wilderness. And now, behold, I am this day y eighty-five years old.</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Joshua 15:58</t>
+          <t>Joshua 14:11</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Halhul, Beth- zur, Gedor,</t>
+          <t>z I am still as strong today as I was in the day that Moses sent me; my strength now is as my strength was then, for war and a for going and coming.</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Joshua 15:59</t>
+          <t>Joshua 14:12</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Maarath, Beth- anoth, and Eltekon: six cities with their villages.</t>
+          <t>So now give me this hill country of which the Lord spoke on that day, for you heard on that day how the b Anakim were there, with great fortified cities. It may be that the Lord will be with me, and I shall drive them out just as the Lord said.</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Joshua 15:61</t>
+          <t>Joshua 14:13</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>In the wilderness, Beth- arabah, Middin, Secacah,</t>
+          <t>Then Joshua c blessed him, and he gave d Hebron to Caleb the son of Jephunneh for an inheritance.</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Joshua 15:62</t>
+          <t>Joshua 14:14</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nibshan, the City of Salt, and Engedi: six cities with their villages.</t>
+          <t>Therefore Hebron became the inheritance of Caleb the son of Jephunneh the Kenizzite to this day, e because he wholly followed the Lord, the God of Israel.</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Joshua 15:63</t>
+          <t>Joshua 14:15</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>But the Jebusites, the in173 hab173 i173 tants of Jerusalem, the people of Judah could not drive out, so the Jebusites dwell with the people of Judah at Jerusalem to this day. The Allotment for Ephraim and Manasseh</t>
+          <t>f Now the name of Hebron formerly was Kiriath-arba. g And the land had rest from war. The Allotment for Judah</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Joshua 16:1</t>
+          <t>Joshua 15:1</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>The allotment of the people of Joseph went from the Jordan by Jericho, east of the waters of Jericho, into the wilderness, going up from Jericho into the hill country to Bethel. 2</t>
+          <t>The allotment for the tribe of the people of Judah according to their clans reached southward h to the boundary of Edom, to i the wilderness of Zin at the farthest south.</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Joshua 16:2</t>
+          <t>Joshua 15:2</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Then going from Bethel to Luz, it passes along to Ataroth, the territory of the Archites. 3</t>
+          <t>And their south boundary ran from the end of the h Salt Sea, from the bay that faces southward.</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Joshua 16:3</t>
+          <t>Joshua 15:3</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Then it goes down westward to the territory of the Japhletites, as far as the territory of Lower Beth- horon, then to Gezer, and it ends at the sea. 4</t>
+          <t>It goes out southward of j the ascent of Akrabbim, passes along to Zin, and goes up south of Kadesh-barnea, along by Hezron, up to Addar, turns about to Karka,</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Joshua 16:5</t>
+          <t>Joshua 15:4</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>The territory of the people of Ephraim by their clans was as follows: the boundary of their inheritance on the east was Ataroth- addar as far as Upper Beth- horon, 6</t>
+          <t>passes along to Azmon, goes out by k the Brook of Egypt, and comes to its end at the sea. This shall be your south boundary.</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Joshua 16:6</t>
+          <t>Joshua 15:5</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>and the boundary goes from there to the sea. On the north is Michmethath. Then on the east the boundary turns around toward Taanath- shiloh and passes along beyond it on the east to Janoah, 7</t>
+          <t>And the east boundary is the h Salt Sea, to the mouth of the Jordan. And the boundary on the north side runs from the bay of the sea at the mouth of the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Joshua 16:7</t>
+          <t>Joshua 15:6</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>then it goes down from Janoah to Ataroth and to Naarah, and touches Jericho, ending at the Jordan. 8</t>
+          <t>And the boundary goes up to l Beth-hoglah and passes along north of m Beth-arabah. And the boundary goes up to n the stone of Bohan the son of Reuben.</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Joshua 16:8</t>
+          <t>Joshua 15:7</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>From Tappuah the boundary goes westward to the brook Kanah and ends at the sea. Such is the inheritance of the tribe of the people of Ephraim by their clans, 9</t>
+          <t>And the boundary goes up to Debir from o the Valley of Achor, and so northward, turning toward Gilgal, which is opposite p the ascent of Adummim, which is on the south side of the valley. And the boundary passes along to the waters of p En-shemesh and ends at q En-rogel.</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Joshua 16:9</t>
+          <t>Joshua 15:8</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>together with the towns that were set apart for the people of Ephraim within the inheritance of the Manassites, all those towns with their villages.</t>
+          <t>Then the boundary goes up by r the Valley of the Son of Hinnom at the southern shoulder of the Jebusite. And the boundary goes up to the top of the mountain that lies over against the Valley of Hinnom, on the west, at the northern end of the Valley t of Rephaim.</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Joshua 16:10</t>
+          <t>Joshua 15:9</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>However, they did not drive out the Canaanites who lived in Gezer, so the Canaanites have lived in the midst of Ephraim to this day but have been made to do forced labor.</t>
+          <t>Then the boundary extends from the top of the mountain u to the spring of the waters of Nephtoah, and from there to the cities of Mount Ephron. Then the boundary bends around to Baalah.</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Joshua 17:1</t>
+          <t>Joshua 15:10</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Then allotment was made to the people of Manasseh, for he was the firstborn of Joseph. To Machir the firstborn of Manasseh, the father of Gilead, were allotted Gilead and Bashan, because he was a man of war. 2</t>
+          <t>And the boundary circles west of Baalah to Mount Seir, passes along to the northern shoulder of Mount Jearim, and goes down to w Beth-shemesh and passes along by x Timnah.</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Joshua 17:2</t>
+          <t>Joshua 15:11</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>And allotments were made to the rest of the people of Manasseh by their clans, Abiezer, Helek, Asriel, Shechem, Hepher, and Shemida. These were the male descendants of Manasseh the son of Joseph, by their clans. 3</t>
+          <t>The boundary goes out y to the shoulder of the hill north of Ekron, then the boundary bends around to Shikkeron and passes along to Mount z Baalah and goes out to Jabneel. Then the boundary comes to an end at the sea.</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Joshua 17:3</t>
+          <t>Joshua 15:12</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Now Zelophehad the son of Hepher, son of Gilead, son of Machir, son of Manasseh, had no sons, but only daughters, and these are the names of his daughters: Mahlah, Noah, Hoglah, Milcah, and Tirzah. 4</t>
+          <t>And the west boundary was a the Great Sea with its coastline. This is the boundary around the people of Judah according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Joshua 17:4</t>
+          <t>Joshua 15:13</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>They approached Eleazar the priest and Joshua the son of Nun and the leaders and said, The Lord commanded Moses to give us an inheritance along with our brothers. So according to the mouth of the Lord he gave them an inheritance among the brothers of their father. 5</t>
+          <t>According to the commandment of the Lord to Joshua, he gave to Caleb the son of Jephunneh a portion among the people of Judah, b Kiriath-arba, that is, b Hebron.</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Joshua 17:5</t>
+          <t>Joshua 15:14</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Thus there fell to Manasseh ten portions, besides the land of Gilead and Bashan, which is on the other side of the Jordan, 6</t>
+          <t>And Caleb drove out from there the three sons of Anak, c Sheshai and Ahiman and Talmai, the descendants of Anak.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Joshua 17:6</t>
+          <t>Joshua 15:15</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>because the daughters of Manasseh received an inheritance along with his sons. The land of Gilead was allotted to the rest of the people of Manasseh. 7</t>
+          <t>And he went up from there against the in?hab?i?tants of Debir. d Now the name of Debir formerly was Kiriath-sepher.</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Joshua 17:7</t>
+          <t>Joshua 15:16</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>The territory of Manasseh reached from Asher to Michmethath, which is east of Shechem. Then the boundary goes along southward to the in173 hab173 i173 tants of En- tappuah. 8</t>
+          <t>And Caleb said, He who attacks Kiriath-sepher and captures it, I will give him Achsah my daughter as wife.</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Joshua 17:8</t>
+          <t>Joshua 15:17</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>The land of Tappuah belonged to Manasseh, but the town of Tappuah on the boundary of Manasseh belonged to the people of Ephraim. 9</t>
+          <t>e And Othniel the son of Kenaz, f the brother of Caleb, captured it. And he gave him Achsah his daughter as wife.</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Joshua 17:10</t>
+          <t>Joshua 15:18</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>the land to the south being Ephraim's and that to the north being Manasseh's, with the sea forming its boundary. On the north Asher is reached, and on the east Issachar.</t>
+          <t>When she came to him, she urged him to ask her father for a field. And she dismounted from her donkey, and Caleb said to her, What do you want?</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Joshua 17:11</t>
+          <t>Joshua 15:19</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Also in Issachar and in Asher Manasseh had Beth- shean and its villages, and Ibleam and its villages, and the in173 hab173 i173 tants of Dor and its villages, and the in173 hab173 i173 tants of En- dor and its villages, and the in173 hab173 i173 tants of Taanach and its villages, and the in173 hab173 i173 tants of Megiddo and its villages; the third is Naphath.</t>
+          <t>She said to him, Give me a blessing. Since you have given me the land of the Negeb, give me also springs of water. And he gave her the upper springs and the lower springs.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Joshua 17:13</t>
+          <t>Joshua 15:20</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Now when the people of Israel grew strong, they put the Canaanites to forced labor, but did not utterly drive them out.</t>
+          <t>This is the inheritance of the tribe of the people of Judah according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Joshua 17:14</t>
+          <t>Joshua 15:21</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Then the people of Joseph spoke to Joshua, saying, Why have you given me but one lot and one portion as an inheritance, although I am a numerous people, since all along the Lord has blessed me</t>
+          <t>The cities belonging to the tribe of the people of Judah in the extreme south, toward the boundary of Edom, were Kabzeel, g Eder, Jagur,</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Joshua 17:15</t>
+          <t>Joshua 15:22</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>And Joshua said to them, If you are a numerous people, go up by yourselves to the forest, and there clear ground for yourselves in the land of the Perizzites and the Rephaim, since the hill country of Ephraim is too narrow for you.</t>
+          <t>Kinah, Dimonah, Adadah,</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Joshua 17:16</t>
+          <t>Joshua 15:23</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>The people of Joseph said, The hill country is not enough for us. Yet all the Canaanites who dwell in the plain have chariots of iron, both those in Beth- shean and its villages and those in the Valley of Jezreel.</t>
+          <t>Kedesh, Hazor, Ithnan,</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Joshua 17:17</t>
+          <t>Joshua 15:24</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Then Joshua said to the house of Joseph, to Ephraim and Manasseh, You are a numerous people and have great power. You shall not have one allotment only,</t>
+          <t>h Ziph, Telem, Bealoth,</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Joshua 17:18</t>
+          <t>Joshua 15:25</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>but the hill country shall be yours, for though it is a forest, you shall clear it and possess it to its farthest borders. For you shall drive out the Canaanites, though they have chariots of iron, and though they are strong. Allotment of the Remaining Land</t>
+          <t>Hazor-hadattah, Kerioth-hezron,</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Joshua 18:1</t>
+          <t>Joshua 15:26</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Then the whole congregation of the people of Israel assembled at Shiloh and set up the tent of meeting there. The land lay subdued before them. 2</t>
+          <t>Amam, Shema, Moladah,</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Joshua 18:2</t>
+          <t>Joshua 15:27</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>There remained among the people of Israel seven tribes whose inheritance had not yet been apportioned. 3</t>
+          <t>Hazar-gaddah, Heshmon, Beth-pelet,</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Joshua 18:3</t>
+          <t>Joshua 15:28</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>So Joshua said to the people of Israel, How long will you put off going in to take possession of the land, which the Lord , the God of your fathers, has given you 4</t>
+          <t>Hazar-shual, i Beersheba, Biziothiah,</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Joshua 18:4</t>
+          <t>Joshua 15:29</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Provide three men from each tribe, and I will send them out that they may set out and go up and down the land. They shall write a description of it with a view to their inheritances, and then come to me. 5</t>
+          <t>Baalah, Iim, Ezem,</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Joshua 18:5</t>
+          <t>Joshua 15:30</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>They shall divide it into seven portions. Judah shall continue in his territory on the south, and the house of Joseph shall continue in their territory on the north. 6</t>
+          <t>Eltolad, Chesil, Hormah,</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Joshua 18:6</t>
+          <t>Joshua 15:31</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>And you shall describe the land in seven divisions and bring the description here to me. And I will cast lots for you here before the Lord our God. 7</t>
+          <t>j Ziklag, Madmannah, Sansannah,</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Joshua 18:7</t>
+          <t>Joshua 15:32</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>The Levites have no portion among you, for the priesthood of the Lord is their heritage. And Gad and Reuben and half the tribe of Manasseh have received their inheritance beyond the Jordan eastward, which Moses the servant of the Lord gave them. 8</t>
+          <t>Lebaoth, Shilhim, Ain, and Rimmon: in all, twenty-nine cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Joshua 18:8</t>
+          <t>Joshua 15:33</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>So the men arose and went, and Joshua charged those who went to write the description of the land, saying, Go up and down in the land and write a description and return to me. And I will cast lots for you here before the Lord in Shiloh. 9</t>
+          <t>And in the lowland, k Eshtaol, Zorah, Ashnah,</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Joshua 18:9</t>
+          <t>Joshua 15:34</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>So the men went and passed up and down in the land and wrote in a book a description of it by towns in seven divisions. Then they came to Joshua to the camp at Shiloh,</t>
+          <t>Zanoah, En-gannim, Tappuah, Enam,</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Joshua 18:10</t>
+          <t>Joshua 15:35</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>and Joshua cast lots for them in Shiloh before the Lord . And there Joshua apportioned the land to the people of Israel, to each his portion. The Inheritance for Benjamin</t>
+          <t>l Jarmuth, m Adullam, n Socoh, n Azekah,</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Joshua 18:11</t>
+          <t>Joshua 15:36</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>The lot of the tribe of the people of Benjamin according to its clans came up, and the territory allotted to it fell between the people of Judah and the people of Joseph.</t>
+          <t>Shaaraim, Adithaim, Gederah, Gederothaim: fourteen cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Joshua 18:13</t>
+          <t>Joshua 15:37</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>From there the boundary passes along southward in the direction of Luz, to the shoulder of Luz (that is, Bethel), then the boundary goes down to Ataroth- addar, on the mountain that lies south of Lower Beth- horon.</t>
+          <t>Zenan, Hadashah, Migdal-gad,</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Joshua 18:14</t>
+          <t>Joshua 15:38</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Then the boundary goes in another direction, turning on the western side southward from the mountain that lies to the south, opposite Beth- horon, and it ends at Kiriath- baal ( that is, Kiriath- jearim), a city belonging to the people of Judah. This forms the western side.</t>
+          <t>Dilean, Mizpeh, Joktheel,</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Joshua 18:15</t>
+          <t>Joshua 15:39</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>And the southern side begins at the outskirts of Kiriath- jearim. And the boundary goes from there to Ephron, to the spring of the waters of Nephtoah.</t>
+          <t>o Lachish, Bozkath, p Eglon,</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Joshua 18:16</t>
+          <t>Joshua 15:40</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Then the boundary goes down to the border of the mountain that overlooks the Valley of the Son of Hinnom, which is at the north end of the Valley of Rephaim. And it then goes down the Valley of Hinnom, south of the shoulder of the Jebusites, and downward to En- rogel.</t>
+          <t>Cabbon, Lahmam, Chitlish,</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Joshua 18:17</t>
+          <t>Joshua 15:41</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Then it bends in a northerly direction going on to En- shemesh, and from there goes to Geliloth, which is opposite the ascent of Adummim. Then it goes down to the stone of Bohan the son of Reuben,</t>
+          <t>Gederoth, Beth-dagon, Naamah, and q Makkedah: sixteen cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Joshua 18:18</t>
+          <t>Joshua 15:42</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>and passing on to the north of the shoulder of Beth- araba16 h it goes down to the Arabah.</t>
+          <t>r Libnah, Ether, Ashan,</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Joshua 18:19</t>
+          <t>Joshua 15:43</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Then the boundary passes on to the north of the shoulder of Beth- hoglah. And the boundary ends at the northern bay of the Salt Sea, at the south end of the Jordan: this is the southern border.</t>
+          <t>Iphtah, Ashnah, Nezib,</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Joshua 18:20</t>
+          <t>Joshua 15:44</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>The Jordan forms its boundary on the eastern side. This is the inheritance of the people of Benjamin, according to their clans, boundary by boundary all around.</t>
+          <t>s Keilah, Achzib, and Mareshah: nine cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Joshua 18:21</t>
+          <t>Joshua 15:45</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Now the cities of the tribe of the people of Benjamin according to their clans were Jericho, Beth- hoglah, Emek- keziz,</t>
+          <t>t Ekron, with its towns and its villages;</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Joshua 18:22</t>
+          <t>Joshua 15:46</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Beth- arabah, Zemaraim, Bethel,</t>
+          <t>from Ekron to the sea, all that were by the side of Ashdod, with their villages.</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Joshua 18:23</t>
+          <t>Joshua 15:47</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Avvim, Parah, Ophrah,</t>
+          <t>t Ashdod, its towns and its villages; t Gaza, its towns and its villages; to u the Brook of Egypt, and v the Great Sea with its coastline.</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Joshua 18:24</t>
+          <t>Joshua 15:48</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Chephar- ammoni, Ophni, Geb16 a twelve cities with their villages:</t>
+          <t>And in the hill country, Shamir, Jattir, Socoh,</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Joshua 18:25</t>
+          <t>Joshua 15:49</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Gibeon, Ramah, Beeroth,</t>
+          <t>Dannah, Kiriath-sannah,</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Joshua 18:26</t>
+          <t>Joshua 15:50</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Mizpeh, Chephirah, Mozah,</t>
+          <t>Anab, Eshtemoh, Anim,</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Joshua 18:27</t>
+          <t>Joshua 15:51</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rekem, Irpeel, Taralah,</t>
+          <t>x Goshen, Holon, and y Giloh: eleven cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Joshua 18:28</t>
+          <t>Joshua 15:52</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Zela, Haeleph, Jebu16's (that is, Jerusalem), Gibea h and Kiriath- jeari16 m fourteen cities with their villages. This is the inheritance of the people of Benjamin according to its clans. The Inheritance for Simeon</t>
+          <t>Arab, Dumah, Eshan,</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Joshua 19:1</t>
+          <t>Joshua 15:53</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>The second lot came out for Simeon, for the tribe of the people of Simeon, according to their clans, and their inheritance was in the midst of the inheritance of the people of Judah. 2</t>
+          <t>Janim, Beth-tappuah, Aphekah,</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Joshua 19:3</t>
+          <t>Joshua 15:54</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Hazar- shual, Balah, Ezem, 4</t>
+          <t>Humtah, z Kiriath-arba, and Zior: nine cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Joshua 19:4</t>
+          <t>Joshua 15:55</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Eltolad, Bethul, Hormah, 5</t>
+          <t>a Maon, a Carmel, b Ziph, Juttah,</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Joshua 19:5</t>
+          <t>Joshua 15:56</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ziklag, Beth- marcaboth, Hazar- susah, 6</t>
+          <t>Jezreel, Jokdeam, Zanoah,</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Joshua 19:6</t>
+          <t>Joshua 15:57</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Beth- lebaoth, and Sharuhe16 n thirteen cities with their villages; 7</t>
+          <t>Kain, Gibeah, and c Timnah: ten cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Joshua 19:7</t>
+          <t>Joshua 15:58</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ain, Rimmon, Ether, and Asha16 n four cities with their villages, 8</t>
+          <t>Halhul, Beth-zur, Gedor,</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Joshua 19:8</t>
+          <t>Joshua 15:59</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>together with all the villages around these cities as far as Baalath- beer, Ramah of the Negeb. This was the inheritance of the tribe of the people of Simeon according to their clans. 9</t>
+          <t>Maarath, Beth-anoth, and Eltekon: six cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Joshua 19:10</t>
+          <t>Joshua 15:60</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>The third lot came up for the people of Zebulun, according to their clans. And the territory of their inheritance reached as far as Sarid.</t>
+          <t>d Kiriath-baal, and Rabbah: two cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Joshua 19:11</t>
+          <t>Joshua 15:61</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Then their boundary goes up westward and on to Mareal and touches Dabbesheth, then the brook that is east of Jokneam.</t>
+          <t>In the wilderness, e Beth-arabah, Middin, Secacah,</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Joshua 19:12</t>
+          <t>Joshua 15:62</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>From Sarid it goes in the other direction eastward toward the sunrise to the boundary of Chisloth- tabor. From there it goes to Daberath, then up to Japhia.</t>
+          <t>Nibshan, the City of Salt, and f Engedi: six cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Joshua 19:13</t>
+          <t>Joshua 15:63</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>From there it passes along on the east toward the sunrise to Gath- hepher, to Eth- kazin, and going on to Rimmon it bends toward Neah,</t>
+          <t>But the g Jebusites, the in?hab?i?tants of Jerusalem, h the people of Judah could not drive out, h so the Jebusites dwell with the people of Judah at Jerusalem to this day. The Allotment for Ephraim and Manasseh</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Joshua 19:14</t>
+          <t>Joshua 16:1</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>then on the north the boundary turns about to Hannathon, and it ends at the Valley of Iphtahel;</t>
+          <t>The allotment of the people of Joseph went from the Jordan by Jericho, east of the waters of Jericho, i into the wilderness, going up from Jericho into the hill country to Bethel.</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Joshua 19:15</t>
+          <t>Joshua 16:2</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>and Kattath, Nahalal, Shimron, Idalah, and Bethlehe16 m twelve cities with their villages.</t>
+          <t>Then j going from Bethel to Luz, it passes along to Ataroth, the territory of the Archites.</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Joshua 19:16</t>
+          <t>Joshua 16:3</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>This is the inheritance of the people of Zebulun, according to their clan16's these cities with their villages. The Inheritance for Issachar</t>
+          <t>Then it goes down westward to the territory of the Japhletites, as far as the territory of Lower k Beth-horon, then to l Gezer, and it ends at the sea.</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Joshua 19:17</t>
+          <t>Joshua 16:4</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>The fourth lot came out for Issachar, for the people of Issachar, according to their clans.</t>
+          <t>m The people of Joseph, Manasseh and Ephraim, received their inheritance.</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Joshua 19:18</t>
+          <t>Joshua 16:5</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Their territory included Jezreel, Chesulloth, Shunem,</t>
+          <t>The territory of the people of Ephraim by their clans was as follows: the boundary of their inheritance on the east was n Ataroth-addar as far as Upper Beth-horon,</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Joshua 19:19</t>
+          <t>Joshua 16:6</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Hapharaim, Shion, Anaharath,</t>
+          <t>and the boundary goes from there to the sea. On the north is o Michmethath. Then on the east the boundary turns around toward Taanath-shiloh and passes along beyond it on the east to Janoah,</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Joshua 19:20</t>
+          <t>Joshua 16:7</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Rabbith, Kishion, Ebez,</t>
+          <t>then it goes down from Janoah to Ataroth and p to Naarah, and touches Jericho, ending at the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Joshua 19:21</t>
+          <t>Joshua 16:8</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Remeth, En- gannim, En- haddah, Beth- pazzez.</t>
+          <t>From q Tappuah the boundary goes westward to the brook Kanah and ends at the sea. Such is the inheritance of the tribe of the people of Ephraim by their clans,</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Joshua 19:22</t>
+          <t>Joshua 16:9</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>The boundary also touches Tabor, Shahazumah, and Beth- shemesh, and its boundary ends at the Jorda16 n sixteen cities with their villages.</t>
+          <t>together with q the towns that were set apart for the people of Ephraim within the inheritance of the Manassites, all those towns with their villages.</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Joshua 19:23</t>
+          <t>Joshua 16:10</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>This is the inheritance of the tribe of the people of Issachar, according to their clan's the cities with their villages. The Inheritance for Asher</t>
+          <t>However, r they did not drive out the Canaanites who lived in Gezer, so the Canaanites have lived in the midst of Ephraim to this day but have been made s to do forced labor.</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Joshua 19:24</t>
+          <t>Joshua 17:1</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>The fifth lot came out for the tribe of the people of Asher according to their clans.</t>
+          <t>Then allotment was made to the people of Manasseh, for he was t the firstborn of Joseph. To u Machir the firstborn of Manasseh, the father of Gilead, v were allotted Gilead and Bashan, because he was a man of war.</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Joshua 19:25</t>
+          <t>Joshua 17:2</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Their territory included Helkath, Hali, Beten, Achshaph,</t>
+          <t>And allotments were made w to the rest of the people of Manasseh by their clans, Abiezer, Helek, Asriel, Shechem, Hepher, and Shemida. These were the male descendants of Manasseh the son of Joseph, by their clans.</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Joshua 19:26</t>
+          <t>Joshua 17:3</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Allammelech, Amad, and Mishal. On the west it touches Carmel and Shihor- libnath,</t>
+          <t>Now x Zelophehad the son of Hepher, son of Gilead, son of Machir, son of Manasseh, had no sons, but only daughters, and these are the names of his daughters: x Mahlah, Noah, Hoglah, Milcah, and Tirzah.</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Joshua 19:27</t>
+          <t>Joshua 17:4</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>then it turns eastward, it goes to Beth- dagon, and touches Zebulun and the Valley of Iphtahel northward to Beth- emek and Neiel. Then it continues in the north to Cabul,</t>
+          <t>They approached y Eleazar the priest and Joshua the son of Nun and the leaders and said, z The Lord commanded Moses to give us an inheritance along with our brothers. So according to the mouth of the Lord he gave them an inheritance among the brothers of their father.</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Joshua 19:28</t>
+          <t>Joshua 17:5</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ebron, Rehob, Hammon, Kanah, as far as Sidon the Great.</t>
+          <t>Thus there fell to Manasseh ten portions, besides a the land of Gilead and Bashan, which is on the other side of the Jordan,</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Joshua 19:29</t>
+          <t>Joshua 17:6</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Then the boundary turns to Ramah, reaching to the fortified city of Tyre. Then the boundary turns to Hosah, and it ends at the sea; Mahalab, Achzib,</t>
+          <t>because the daughters of Manasseh received an inheritance along with his sons. The land of Gilead was allotted to the rest of the people of Manasseh.</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Joshua 19:30</t>
+          <t>Joshua 17:7</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Ummah, Aphek and Reho16 b twenty- two cities with their villages.</t>
+          <t>The territory of Manasseh reached from Asher to b Michmethath, which is east of Shechem. Then the boundary goes along southward to the in?hab?i?tants of En-tappuah.</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Joshua 19:31</t>
+          <t>Joshua 17:8</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>This is the inheritance of the tribe of the people of Asher according to their clan's these cities with their villages. The Inheritance for Naphtali</t>
+          <t>The land of c Tappuah belonged to Manasseh, but the town of Tappuah on the boundary of Manasseh belonged to the people of Ephraim.</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Joshua 19:32</t>
+          <t>Joshua 17:9</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>The sixth lot came out for the people of Naphtali, for the people of Naphtali, according to their clans.</t>
+          <t>c Then the boundary went down to the brook Kanah. These cities, to the south of the brook, among the cities of Manasseh, belong to Ephraim. Then the boundary of Manasseh goes on the north side of the brook and ends at the sea,</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Joshua 19:33</t>
+          <t>Joshua 17:10</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>And their boundary ran from Heleph, from the oak in Zaanannim, and Adami- nekeb, and Jabneel, as far as Lakkum, and it ended at the Jordan.</t>
+          <t>the land to the south being Ephraim s and that to the north being Manasseh s, with the sea forming its boundary. On the north Asher is reached, and on the east Issachar.</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Joshua 19:34</t>
+          <t>Joshua 17:11</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Then the boundary turns westward to Aznoth- tabor and goes from there to Hukkok, touching Zebulun at the south and Asher on the west and Judah on the east at the Jordan.</t>
+          <t>Also in Issachar and in Asher d Manasseh had Beth-shean and its villages, and Ibleam and its villages, and the in?hab?i?tants of d Dor and its villages, and the in?hab?i?tants of En-dor and its villages, and the in?hab?i?tants of d Taanach and its villages, and the in?hab?i?tants of d Megiddo and its villages; e the third is Naphath.</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Joshua 19:35</t>
+          <t>Joshua 17:12</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>The fortified cities are Ziddim, Zer, Hammath, Rakkath, Chinnereth,</t>
+          <t>f Yet the people of Manasseh could not take possession of those cities, but the Canaanites persisted in dwelling in that land.</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Joshua 19:36</t>
+          <t>Joshua 17:13</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Adamah, Ramah, Hazor,</t>
+          <t>Now when the people of Israel grew strong, they put the Canaanites g to forced labor, but did not utterly drive them out.</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Joshua 19:37</t>
+          <t>Joshua 17:14</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Kedesh, Edrei, En- hazor,</t>
+          <t>Then h the people of Joseph spoke to Joshua, saying, Why have you given me but i one lot and one portion as an inheritance, although I am j a numerous people, since all along the Lord has blessed me?</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Joshua 19:38</t>
+          <t>Joshua 17:15</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Yiron, Migdal- el, Horem, Beth- anath, and Beth- shemes16 h nineteen cities with their villages.</t>
+          <t>And Joshua said to them, If you are a numerous people, go up by yourselves to the forest, and there clear ground for yourselves in the land of the Perizzites and k the Rephaim, since l the hill country of Ephraim is too narrow for you.</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Joshua 19:39</t>
+          <t>Joshua 17:16</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>This is the inheritance of the tribe of the people of Naphtali according to their clan's the cities with their villages. The Inheritance for Dan</t>
+          <t>The people of Joseph said, The hill country is not enough for us. Yet all the Canaanites who dwell in the plain have m chariots of iron, both those in Beth-shean and its villages and those in n the Valley of Jezreel.</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Joshua 19:40</t>
+          <t>Joshua 17:17</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>The seventh lot came out for the tribe of the people of Dan, according to their clans.</t>
+          <t>Then Joshua said to the house of Joseph, to Ephraim and Manasseh, You are a numerous people and have great power. You shall not have one allotment only,</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Joshua 19:41</t>
+          <t>Joshua 17:18</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>And the territory of its inheritance included Zorah, Eshtaol, Ir- shemesh,</t>
+          <t>but the hill country shall be yours, for though it is a forest, you shall clear it and possess it to its farthest borders. For you shall drive out the Canaanites, o though they have chariots of iron, and though they are strong. Allotment of the Remaining Land</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Joshua 19:43</t>
+          <t>Joshua 18:1</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Elon, Timnah, Ekron,</t>
+          <t>Then the whole congregation of the people of Israel assembled at p Shiloh and set up q the tent of meeting there. The land lay subdued before them.</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Joshua 19:44</t>
+          <t>Joshua 18:2</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Eltekeh, Gibbethon, Baalath,</t>
+          <t>There remained among the people of Israel seven tribes whose inheritance had not yet been apportioned.</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Joshua 19:45</t>
+          <t>Joshua 18:3</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jehud, Bene- berak, Gath- rimmon,</t>
+          <t>So Joshua said to the people of Israel, r How long will you put off going in to take possession of the land, which the Lord, the God of your fathers, has given you?</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Joshua 19:46</t>
+          <t>Joshua 18:4</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>and Me- jarkon and Rakkon with the territory over against Joppa.</t>
+          <t>Provide three men from each tribe, and I will send them out that they may set out and go up and down the land. They shall write a description of it with a view to their inheritances, and then come to me.</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Joshua 19:47</t>
+          <t>Joshua 18:5</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>When the territory of the people of Dan was lost to them, the people of Dan went up and fought against Leshem, and after capturing it and striking it with the sword they took possession of it and settled in it, calling Leshem, Dan, after the name of Dan their ancestor.</t>
+          <t>They shall divide it into seven portions. s Judah shall continue in his territory on the south, t and the house of Joseph shall continue in their territory on the north.</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Joshua 19:48</t>
+          <t>Joshua 18:6</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>This is the inheritance of the tribe of the people of Dan, according to their clan's these cities with their villages. The Inheritance for Joshua</t>
+          <t>And you shall describe the land in seven divisions and bring the description here to me. u And I will cast lots for you here before the Lord our God.</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Joshua 19:49</t>
+          <t>Joshua 18:7</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>When they had finished distributing the several territories of the land as inheritances, the people of Israel gave an inheritance among them to Joshua the son of Nun.</t>
+          <t>v The Levites have no portion among you, for the priesthood of the Lord is their heritage. w And Gad and Reuben and half the tribe of Manasseh have received their inheritance beyond the Jordan eastward, which Moses the servant of the Lord gave them.</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Joshua 19:50</t>
+          <t>Joshua 18:8</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>By command of the Lord they gave him the city that he asked, Timnath- serah in the hill country of Ephraim. And he rebuilt the city and settled in it.</t>
+          <t>So the men arose and went, and Joshua charged those who went to write the description of the land, saying, Go up and down in the land and write a description and return to me. And I will cast lots for you here before the Lord in Shiloh.</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Joshua 20:1</t>
+          <t>Joshua 18:9</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Then the Lord said to Joshua, 2</t>
+          <t>So the men went and passed up and down in the land and wrote in a book a description of it by towns in seven divisions. Then they came to Joshua to the camp at Shiloh,</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Joshua 20:2</t>
+          <t>Joshua 18:10</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Say to the people of Israel, Appoint the cities of refuge, of which I spoke to you through Moses, 3</t>
+          <t>and Joshua x cast lots for them in Shiloh before the Lord. And there Joshua apportioned the land to the people of Israel, y to each his portion. The Inheritance for Benjamin</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Joshua 20:3</t>
+          <t>Joshua 18:11</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>that the manslayer who strikes any person without intent or unknowingly may flee there. They shall be for you a refuge from the avenger of blood. 4</t>
+          <t>The lot of the tribe of the people of Benjamin according to its clans came up, and the territory allotted to it fell between the people of Judah and the people of Joseph.</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Joshua 20:4</t>
+          <t>Joshua 18:12</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>He shall flee to one of these cities and shall stand at the entrance of the gate of the city and explain his case to the elders of that city. Then they shall take him into the city and give him a place, and he shall remain with them. 5</t>
+          <t>z On the north side their boundary began at the Jordan. a Then the boundary goes up to the shoulder north of Jericho, then up through the hill country westward, and it ends at the wilderness of b Beth-aven.</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Joshua 20:5</t>
+          <t>Joshua 18:13</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>And if the avenger of blood pursues him, they shall not give up the manslayer into his hand, because he struck his neighbor unknowingly, and did not hate him in the past. 6</t>
+          <t>From there the boundary passes along southward in the direction of Luz, to the shoulder of c Luz, then the boundary goes down to d Ataroth-addar, on the mountain that lies south of Lower e Beth-horon.</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Joshua 20:6</t>
+          <t>Joshua 18:14</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>And he shall remain in that city until he has stood before the congregation for judgment, until the death of him who is high priest at the time. Then the manslayer may return to his own town and his own home, to the town from which he fled. 7</t>
+          <t>Then the boundary goes in another direction, turning on the f western side southward from the mountain that lies to the south, opposite Beth-horon, and it ends at Kiriath-baal, a city belonging to the people of Judah. This forms the western side.</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Joshua 20:7</t>
+          <t>Joshua 18:15</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>So they set apart Kedesh in Galilee in the hill country of Naphtali, and Shechem in the hill country of Ephraim, and Kiriath- arba (that is, Hebron) in the hill country of Judah. 8</t>
+          <t>And the southern side begins at the outskirts of Kiriath-jearim. And the boundary goes from there to Ephron,</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Joshua 20:8</t>
+          <t>Joshua 18:16</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>And beyond the Jordan east of Jericho, they appointed Bezer in the wilderness on the tableland, from the tribe of Reuben, and Ramoth in Gilead, from the tribe of Gad, and Golan in Bashan, from the tribe of Manasseh. 9</t>
+          <t>g to the spring of the waters of Nephtoah.</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Joshua 20:9</t>
+          <t>Joshua 18:16</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>These were the cities designated for all the people of Israel and for the stranger sojourning among them, that anyone who killed a person without intent could flee there, so that he might not die by the hand of the avenger of blood, till he stood before the congregation. Cities and Pasturelands Allotted to Levi</t>
+          <t>Then the boundary goes down to the border of the mountain that overlooks h the Valley of the Son of Hinnom, which is at the north end of the Valley of i Rephaim. And it then goes down the h Valley of Hinnom, south of the shoulder of the Jebusites, and downward to j En-rogel.</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Joshua 21:1</t>
+          <t>Joshua 18:17</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Then the heads of the fathers houses of the Levites came to Eleazar the priest and to Joshua the son of Nun and to the heads of the fathers houses of the tribes of the people of Israel. 2</t>
+          <t>Then it bends in a northerly direction going on to En-shemesh, and from there goes to Geliloth, which is opposite the ascent of Adummim. Then it goes down to k the stone of Bohan the son of Reuben,</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Joshua 21:2</t>
+          <t>Joshua 18:18</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>And they said to them at Shiloh in the land of Canaan, The Lord commanded through Moses that we be given cities to dwell in, along with their pasturelands for our livestock. 3</t>
+          <t>and passing on to the north of l the shoulder of Beth-araba h it goes down to l the Arabah.</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Joshua 21:3</t>
+          <t>Joshua 18:19</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>So by command of the Lord the people of Israel gave to the Levites the following cities and pasturelands out of their inheritance. 4</t>
+          <t>Then the boundary passes on to the north of the shoulder of k Beth-hoglah. And the boundary ends at the northern bay of m the Salt Sea, at the south end of the Jordan: this is the southern border.</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Joshua 21:4</t>
+          <t>Joshua 18:20</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>The lot came out for the clans of the Kohathites. So those Levites who were descendants of Aaron the priest received by lot from the tribes of Judah, Simeon, and Benjamin, thirteen cities. 5</t>
+          <t>The Jordan forms its boundary on the eastern side. This is the inheritance of the people of Benjamin, according to their clans, boundary by boundary all around.</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Joshua 21:5</t>
+          <t>Joshua 18:21</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>And the rest of the Kohathites received by lot from the clans of the tribe of Ephraim, from the tribe of Dan and the half- tribe of Manasseh, ten cities. 6</t>
+          <t>Now the cities of the tribe of the people of Benjamin according to their clans were n Jericho, Beth-hoglah, Emek-keziz,</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Joshua 21:6</t>
+          <t>Joshua 18:22</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>The Gershonites received by lot from the clans of the tribe of Issachar, from the tribe of Asher, from the tribe of Naphtali, and from the half- tribe of Manasseh in Bashan, thirteen cities. 7</t>
+          <t>Beth-arabah, Zemaraim, Bethel,</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Joshua 21:7</t>
+          <t>Joshua 18:23</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>The Merarites according to their clans received from the tribe of Reuben, the tribe of Gad, and the tribe of Zebulun, twelve cities. 8</t>
+          <t>Avvim, Parah, Ophrah,</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Joshua 21:8</t>
+          <t>Joshua 18:24</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>These cities and their pasturelands the people of Israel gave by lot to the Levites, as the Lord had commanded through Moses. 9</t>
+          <t>Chephar-ammoni, Ophni, Geb a twelve cities with their villages:</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Joshua 21:9</t>
+          <t>Joshua 18:25</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Out of the tribe of the people of Judah and the tribe of the people of Simeon they gave the following cities mentioned by name,</t>
+          <t>Gibeon, Ramah, Beeroth,</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Joshua 21:10</t>
+          <t>Joshua 18:26</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>which went to the descendants of Aaron, one of the clans of the Kohathites who belonged to the people of Levi; since the lot fell to them first.</t>
+          <t>Mizpeh, Chephirah, Mozah,</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Joshua 21:12</t>
+          <t>Joshua 18:27</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>But the fields of the city and its villages had been given to Caleb the son of Jephunneh as his possession.</t>
+          <t>Rekem, Irpeel, Taralah,</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Joshua 21:13</t>
+          <t>Joshua 18:28</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>And to the descendants of Aaron the priest they gave Hebron, the city of refuge for the manslayer, with its pasturelands, Libnah with its pasturelands,</t>
+          <t>Zela, Haeleph, o Jebu s, Gibea h and Kiriath-jeari m fourteen cities with their villages. This is the inheritance of the people of Benjamin according to its clans. The Inheritance for Simeon</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Joshua 21:14</t>
+          <t>Joshua 19:1</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Jattir with its pasturelands, Eshtemoa with its pasturelands,</t>
+          <t>The second lot came out for Simeon, for the tribe of the people of Simeon, according to their clans, p and their inheritance was in the midst of the inheritance of the people of Judah.</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Joshua 21:15</t>
+          <t>Joshua 19:2</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Holon with its pasturelands, Debir with its pasturelands,</t>
+          <t>q And they had for their inheritance Beersheba, Sheba, Moladah,</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Joshua 21:16</t>
+          <t>Joshua 19:3</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ain with its pasturelands, Juttah with its pasturelands, Beth- shemesh with its pastureland16's nine cities out of these two tribes;</t>
+          <t>Hazar-shual, Balah, Ezem,</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Joshua 21:17</t>
+          <t>Joshua 19:4</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>then out of the tribe of Benjamin, Gibeon with its pasturelands, Geba with its pasturelands,</t>
+          <t>Eltolad, Bethul, Hormah,</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Joshua 21:18</t>
+          <t>Joshua 19:5</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Anathoth with its pasturelands, and Almon with its pastureland's four cities.</t>
+          <t>Ziklag, Beth-marcaboth, Hazar-susah,</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Joshua 21:19</t>
+          <t>Joshua 19:6</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>The cities of the descendants of Aaron, the priests, were in all thirteen cities with their pasturelands.</t>
+          <t>Beth-lebaoth, and Sharuhe n thirteen cities with their villages;</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Joshua 21:21</t>
+          <t>Joshua 19:7</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>To them were given Shechem, the city of refuge for the manslayer, with its pasturelands in the hill country of Ephraim, Gezer with its pasturelands,</t>
+          <t>Ain, Rimmon, Ether, and Asha n four cities with their villages,</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Joshua 21:22</t>
+          <t>Joshua 19:8</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Kibzaim with its pasturelands, Beth- horon with its pastureland16's four cities;</t>
+          <t>together with all the villages around these cities as far as Baalath-beer, Ramah of the Negeb. This was the inheritance of the tribe of the people of Simeon according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Joshua 21:23</t>
+          <t>Joshua 19:9</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>and out of the tribe of Dan, Elteke with its pasturelands, Gibbethon with its pasturelands,</t>
+          <t>r The inheritance of the people of Simeon formed part of the territory of the people of Judah. Because the portion of the people of Judah was too large for them, the people of Simeon obtained an inheritance in the midst of their inheritance. The Inheritance for Zebulun</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Joshua 21:24</t>
+          <t>Joshua 19:10</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Aijalon with its pasturelands, Gath- rimmon with its pastureland16's four cities;</t>
+          <t>The third lot came up for the people of Zebulun, according to their clans. And the territory of their inheritance reached as far as Sarid.</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Joshua 21:25</t>
+          <t>Joshua 19:11</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>and out of the half- tribe of Manasseh, Taanach with its pasturelands, and Gath- rimmon with its pastureland16's two cities.</t>
+          <t>Then their boundary goes up s westward and on to Mareal and touches Dabbesheth, then the brook that is east of t Jokneam.</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Joshua 21:26</t>
+          <t>Joshua 19:12</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>The cities of the clans of the rest of the Kohathites were ten in all with their pasturelands.</t>
+          <t>From Sarid it goes in the other direction eastward toward the sunrise to the boundary of Chisloth-tabor. From there it goes to Daberath, then up to Japhia.</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Joshua 21:28</t>
+          <t>Joshua 19:13</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>and out of the tribe of Issachar, Kishion with its pasturelands, Daberath with its pasturelands,</t>
+          <t>From there it passes along on the east toward the sunrise to Gath-hepher, to Eth-kazin, and going on to Rimmon it bends toward Neah,</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Joshua 21:29</t>
+          <t>Joshua 19:14</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Jarmuth with its pasturelands, En- gannim with its pastureland16's four cities;</t>
+          <t>then on the north the boundary turns about to Hannathon, and it ends at the Valley of Iphtahel;</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Joshua 21:30</t>
+          <t>Joshua 19:15</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>and out of the tribe of Asher, Mishal with its pasturelands, Abdon with its pasturelands,</t>
+          <t>and Kattath, Nahalal, u Shimron, Idalah, and Bethlehe m twelve cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Joshua 21:31</t>
+          <t>Joshua 19:16</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Helkath with its pasturelands, and Rehob with its pastureland's four cities;</t>
+          <t>This is the inheritance of the people of Zebulun, according to their clan s these cities with their villages. The Inheritance for Issachar</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Joshua 21:32</t>
+          <t>Joshua 19:17</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>and out of the tribe of Naphtali, Kedesh in Galilee with its pasturelands, the city of refuge for the manslayer, Hammoth- dor with its pasturelands, and Kartan with its pastureland's three cities.</t>
+          <t>The fourth lot came out for Issachar, for the people of Issachar, according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Joshua 21:33</t>
+          <t>Joshua 19:18</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>The cities of the several clans of the Gershonites were in all thirteen cities with their pasturelands.</t>
+          <t>Their territory included Jezreel, Chesulloth, v Shunem,</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Joshua 21:35</t>
+          <t>Joshua 19:19</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Dimnah with its pasturelands, Nahalal with its pastureland's four cities;</t>
+          <t>Hapharaim, Shion, Anaharath,</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Joshua 21:36</t>
+          <t>Joshua 19:20</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>and out of the tribe of Reuben, Bezer with its pasturelands, Jahaz with its pasturelands,</t>
+          <t>Rabbith, Kishion, Ebez,</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Joshua 21:37</t>
+          <t>Joshua 19:21</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Kedemoth with its pasturelands, and Mephaath with its pastureland's four cities;</t>
+          <t>Remeth, En-gannim, En-haddah, Beth-pazzez.</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Joshua 21:38</t>
+          <t>Joshua 19:22</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>and out of the tribe of Gad, Ramoth in Gilead with its pasturelands, the city of refuge for the manslayer, Mahanaim with its pasturelands,</t>
+          <t>The boundary also touches Tabor, Shahazumah, and Beth-shemesh, and its boundary ends at the Jorda n sixteen cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Joshua 21:40</t>
+          <t>Joshua 19:23</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>As for the cities of the several Merarite clans, that is, the remainder of the clans of the Levites, those allotted to them were in all twelve cities.</t>
+          <t>This is the inheritance of the tribe of the people of Issachar, according to their clan s the cities with their villages. The Inheritance for Asher</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Joshua 21:42</t>
+          <t>Joshua 19:24</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>These cities each had its pasturelands around it. So it was with all these cities.</t>
+          <t>The fifth lot came out for the tribe of the people of Asher according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Joshua 22:1</t>
+          <t>Joshua 19:25</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>At that time Joshua summoned the Reubenites and the Gadites and the half- tribe of Manasseh, 2</t>
+          <t>Their territory included Helkath, Hali, Beten, Achshaph,</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Joshua 22:2</t>
+          <t>Joshua 19:26</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>and said to them, You have kept all that Moses the servant of the Lord commanded you and have obeyed my voice in all that I have commanded you. 3</t>
+          <t>Allammelech, Amad, and Mishal. On the west it touches w Carmel and Shihor-libnath,</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Joshua 22:3</t>
+          <t>Joshua 19:27</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>You have not forsaken your brothers these many days, down to this day, but have been careful to keep the charge of the Lord your God. 4</t>
+          <t>then it turns eastward, it goes to Beth-dagon, and touches Zebulun and the Valley of Iphtahel northward to Beth-emek and Neiel. Then it continues in the north to x Cabul,</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Joshua 22:6</t>
+          <t>Joshua 19:28</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>So Joshua blessed them and sent them away, and they went to their tents. 7</t>
+          <t>Ebron, Rehob, Hammon, Kanah, as far as y Sidon the Great.</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Joshua 22:7</t>
+          <t>Joshua 19:29</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Now to the one half of the tribe of Manasseh Moses had given a possession in Bashan, but to the other half Joshua had given a possession beside their brothers in the land west of the Jordan. And when Joshua sent them away to their homes and blessed them, 8</t>
+          <t>Then the boundary turns to Ramah, reaching to the fortified city of Tyre. Then the boundary turns to Hosah, and it ends at the sea; Mahalab, Achzib,</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Joshua 22:8</t>
+          <t>Joshua 19:30</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>he said to them, Go back to your tents with much wealth and with very much livestock, with silver, gold, bronze, and iron, and with much clothing. Divide the spoil of your enemies with your brothers. 9</t>
+          <t>Ummah, Aphek and Reho b twenty-two cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Joshua 22:9</t>
+          <t>Joshua 19:31</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>So the people of Reuben and the people of Gad and the half- tribe of Manasseh returned home, parting from the people of Israel at Shiloh, which is in the land of Canaan, to go to the land of Gilead, their own land of which they had possessed themselves by command of the Lord through Moses. The Eastern Tribes Altar of Witness</t>
+          <t>This is the inheritance of the tribe of the people of Asher according to their clan s these cities with their villages. The Inheritance for Naphtali</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Joshua 22:10</t>
+          <t>Joshua 19:32</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>And when they came to the region of the Jordan that is in the land of Canaan, the people of Reuben and the people of Gad and the half- tribe of Manasseh built there an altar by the Jordan, an altar of imposing size.</t>
+          <t>The sixth lot came out for the people of Naphtali, for the people of Naphtali, according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Joshua 22:11</t>
+          <t>Joshua 19:33</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>And the people of Israel heard it said, Behold, the people of Reuben and the people of Gad and the half- tribe of Manasseh have built the altar at the frontier of the land of Canaan, in the region about the Jordan, on the side that belongs to the people of Israel.</t>
+          <t>And their boundary ran from Heleph, from z the oak in Zaanannim, and Adami-nekeb, and Jabneel, as far as Lakkum, and it ended at the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Joshua 22:12</t>
+          <t>Joshua 19:34</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>And when the people of Israel heard of it, the whole assembly of the people of Israel gathered at Shiloh to make war against them.</t>
+          <t>Then the boundary turns a westward to Aznoth-tabor and goes from there to Hukkok, touching Zebulun at the south and Asher on the west and Judah on the east at the Jordan.</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Joshua 22:13</t>
+          <t>Joshua 19:35</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Then the people of Israel sent to the people of Reuben and the people of Gad and the half- tribe of Manasseh, in the land of Gilead, Phinehas the son of Eleazar the priest,</t>
+          <t>The fortified cities are Ziddim, Zer, Hammath, Rakkath, b Chinnereth,</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Joshua 22:14</t>
+          <t>Joshua 19:36</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>and with him ten chiefs, one from each of the tribal families of Israel, every one of them the head of a family among the clans of Israel.</t>
+          <t>Adamah, Ramah, c Hazor,</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Joshua 22:15</t>
+          <t>Joshua 19:37</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>And they came to the people of Reuben, the people of Gad, and the half- tribe of Manasseh, in the land of Gilead, and they said to them,</t>
+          <t>Kedesh, Edrei, En-hazor,</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Joshua 22:16</t>
+          <t>Joshua 19:38</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Thus says the whole congregation of the Lord , What is this breach of faith that you have committed against the God of Israel in turning away this day from following the Lord by building yourselves an altar this day in rebellion against the Lord</t>
+          <t>Yiron, Migdal-el, Horem, Beth-anath, and Beth-shemes h nineteen cities with their villages.</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Joshua 22:17</t>
+          <t>Joshua 19:39</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Have we not had enough of the sin at Peor from which even yet we have not cleansed ourselves, and for which there came a plague upon the congregation of the Lord ,</t>
+          <t>This is the inheritance of the tribe of the people of Naphtali according to their clan s the cities with their villages. The Inheritance for Dan</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Joshua 22:18</t>
+          <t>Joshua 19:40</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>that you too must turn away this day from following the Lord And if you too rebel against the Lord today then tomorrow he will be angry with the whole congregation of Israel.</t>
+          <t>The seventh lot came out for the tribe of the people of Dan, according to their clans.</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Joshua 22:19</t>
+          <t>Joshua 19:41</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>But now, if the land of your possession is unclean, pass over into the Lord's land where the Lord's tabernacle stands, and take for yourselves a possession among us. Only do not rebel against the Lord or make us as rebels by building for yourselves an altar other than the altar of the Lord our God.</t>
+          <t>And the territory of its inheritance included Zorah, Eshtaol, Ir-shemesh,</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Joshua 22:20</t>
+          <t>Joshua 19:42</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Did not Achan the son of Zerah break faith in the matter of the devoted things, and wrath fell upon all the congregation of Israel And he did not perish alone for his iniquity.</t>
+          <t>d Shaalabbin, d Aijalon, Ithlah,</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Joshua 22:21</t>
+          <t>Joshua 19:43</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Then the people of Reuben, the people of Gad, and the half- tribe of Manasseh said in answer to the heads of the families of Israel,</t>
+          <t>Elon, Timnah, Ekron,</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Joshua 22:22</t>
+          <t>Joshua 19:44</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>The Mighty One, God, the Lord ! The Mighty One, God, the Lord ! He knows; and let Israel itself know! If it was in rebellion or in breach of faith against the Lord , do not spare us today</t>
+          <t>Eltekeh, Gibbethon, Baalath,</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Joshua 22:23</t>
+          <t>Joshua 19:45</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>for building an altar to turn away from following the Lord . Or if we did so to offer burnt offerings or grain offerings or peace offerings on it, may the Lord himself take vengeance.</t>
+          <t>Jehud, Bene-berak, Gath-rimmon,</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Joshua 22:24</t>
+          <t>Joshua 19:46</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>No, but we did it from fear that in time to come your children might say to our children, What have you to do with the Lord , the God of Israel</t>
+          <t>and Me-jarkon and Rakkon with the territory over against e Joppa.</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Joshua 22:25</t>
+          <t>Joshua 19:47</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>For the Lord has made the Jordan a boundary between us and you, you people of Reuben and people of Gad. You have no portion in the Lord . So your children might make our children cease to worship the Lord .</t>
+          <t>When f the territory of the people of Dan was lost to them, the people of Dan went up and fought against Leshem, and after capturing it and striking it with the sword they took possession of it and settled in it, calling Leshem, Dan, after the name of Dan their ancestor.</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Joshua 22:26</t>
+          <t>Joshua 19:48</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Therefore we said, Let us now build an altar, not for burnt offering, nor for sacrifice,</t>
+          <t>This is the inheritance of the tribe of the people of Dan, according to their clan s these cities with their villages. The Inheritance for Joshua</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Joshua 22:27</t>
+          <t>Joshua 19:49</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>but to be a witness between us and you, and between our generations after us, that we do perform the service of the Lord in his presence with our burnt offerings and sacrifices and peace offerings, so your children will not say to our children in time to come, You have no portion in the Lord .</t>
+          <t>When they had finished distributing the several territories of the land as inheritances, the people of Israel gave an inheritance among them to Joshua the son of Nun.</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Joshua 22:28</t>
+          <t>Joshua 19:50</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>And we thought, If this should be said to us or to our descendants in time to come, we should say, Behold, the copy of the altar of the Lord , which our fathers made, not for burnt offerings, nor for sacrifice, but to be a witness between us and you.</t>
+          <t>By command of the Lord they gave him the city that he asked, g Timnath-serah in the hill country of Ephraim. And he rebuilt the city and settled in it.</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Joshua 22:29</t>
+          <t>Joshua 19:51</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Far be it from us that we should rebel against the Lord and turn away this day from following the Lord by building an altar for burnt offering, grain offering, or sacrifice, other than the altar of the Lord our God that stands before his tabernacle!</t>
+          <t>h These are the inheritances that Eleazar the priest and Joshua the son of Nun and the heads of the fathers houses of the tribes of the people of Israel distributed by lot i at Shiloh before the Lord, at the entrance of the tent of meeting. So they finished dividing the land. The Cities of Refuge</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Joshua 22:30</t>
+          <t>Joshua 20:1</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>When Phinehas the priest and the chiefs of the congregation, the heads of the families of Israel who were with him, heard the words that the people of Reuben and the people of Gad and the people of Manasseh spoke, it was good in their eyes.</t>
+          <t>Then the Lord said to Joshua,</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Joshua 22:31</t>
+          <t>Joshua 20:2</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>And Phinehas the son of Eleazar the priest said to the people of Reuben and the people of Gad and the people of Manasseh, Today we know that the Lord is in our midst, because you have not committed this breach of faith against the Lord . Now you have delivered the people of Israel from the hand of the Lord .</t>
+          <t>Say to the people of Israel, j Appoint the cities of refuge, of which I spoke to you through Moses,</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Joshua 22:32</t>
+          <t>Joshua 20:3</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Then Phinehas the son of Eleazar the priest, and the chiefs, returned from the people of Reuben and the people of Gad in the land of Gilead to the land of Canaan, to the people of Israel, and brought back word to them.</t>
+          <t>that the manslayer who strikes any person without intent or unknowingly may flee there. They shall be for you a refuge from the avenger of blood.</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Joshua 22:33</t>
+          <t>Joshua 20:4</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>And the report was good in the eyes of the people of Israel. And the people of Israel blessed God and spoke no more of making war against them to destroy the land where the people of Reuben and the people of Gad were settled.</t>
+          <t>He shall flee to one of these cities and shall stand k at the entrance of the gate of the city and explain his case to the elders of that city. Then they shall take him into the city and give him a place, and he shall remain with them.</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Joshua 22:34</t>
+          <t>Joshua 20:5</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>The people of Reuben and the people of Gad called the altar Witness, For, they said, it is a witness between us that the Lord is God. Joshua's Charge to Israel's Leaders</t>
+          <t>And if the avenger of blood pursues him, they shall not give up the manslayer into his hand, because he struck his neighbor unknowingly, and did not hate him in the past.</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Joshua 23:1</t>
+          <t>Joshua 20:6</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>A long time afterward, when the Lord had given rest to Israel from all their surrounding enemies, and Joshua was old and well advanced in years, 2</t>
+          <t>And he shall remain in that city l until he has stood before the congregation for judgment, until the death of him who is high priest at the time. Then the manslayer may return to his own town and his own home, to the town from which he fled.</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Joshua 23:2</t>
+          <t>Joshua 20:7</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Joshua summoned all Israel, its elders and heads, its judges and officers, and said to them, I m now old and well advanced in years. 3</t>
+          <t>So they set apart m Kedesh in Galilee in the hill country of Naphtali, and n Shechem in the hill country of Ephraim, and o Kiriath-arba p in the hill country of Judah.</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Joshua 23:3</t>
+          <t>Joshua 20:8</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>And you have seen all that the Lord your God has done to all these nations for your sake, for it is the Lord your God who has fought for you. 4</t>
+          <t>And beyond the Jordan east of Jericho, they appointed q Bezer in the wilderness on the tableland, from the tribe of Reuben, and r Ramoth in Gilead, from the tribe of Gad, and s Golan in Bashan, from the tribe of Manasseh.</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Joshua 23:4</t>
+          <t>Joshua 20:9</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Behold, I have allotted to you as an inheritance for your tribes those nations that remain, along with all the nations that I have already cut off, from the Jordan to the Great Sea in the west. 5</t>
+          <t>These were the cities designated for all the people of Israel and t for the stranger sojourning among them, that anyone who killed a person without intent could flee there, so that he might not die by the hand of the avenger of blood, till he stood before the congregation. Cities and Pasturelands Allotted to Levi</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Joshua 23:5</t>
+          <t>Joshua 21:1</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>The Lord your God will push them back before you and drive them out of your sight. And you shall possess their land, just as the Lord your God promised you. 6</t>
+          <t>Then the heads of the fathers houses of the Levites came u to Eleazar the priest and to Joshua the son of Nun and to the heads of the fathers houses of the tribes of the people of Israel.</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Joshua 23:6</t>
+          <t>Joshua 21:2</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Therefore, be very strong to keep and to do all that is written in the Book of the Law of Moses, turning aside from it neither to the right hand nor to the left, 7</t>
+          <t>And they said to them v at Shiloh in the land of Canaan, w The Lord commanded through Moses that we be given cities to dwell in, along with their pasturelands for our livestock.</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Joshua 23:12</t>
+          <t>Joshua 21:3</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>For if you turn back and cling to the remnant of these nations remaining among you and make marriages with them, so that you associate with them and they with you,</t>
+          <t>So by command of the Lord the people of Israel gave to the Levites the following cities and pasturelands out of their inheritance.</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Joshua 23:13</t>
+          <t>Joshua 21:4</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>know for certain that the Lord your God will no long173 er drive out these nations before you, but they shall be a snare and a trap for you, a whip on your sides and thorns in your eyes, until you perish from off this good ground that the Lord your God has given you.</t>
+          <t>The lot came out for the clans of the Kohathites. So those Levites who were descendants of Aaron the priest x received by lot from the tribes of Judah, Simeon, and Benjamin, thirteen cities.</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Joshua 23:14</t>
+          <t>Joshua 21:5</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>And now I m about to go the way of all the earth, and you know in your hearts and souls, all of you, that not one word has failed of all the good thing16's that the Lord your God promised concerning you. All have come to pass for you; not one of them has failed.</t>
+          <t>And the rest of the Kohathites received by lot y from the clans of the tribe of Ephraim, from the tribe of Dan and the half-tribe of Manasseh, ten cities.</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Joshua 23:15</t>
+          <t>Joshua 21:6</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>But just as all the good things that the Lord your God promised concerning you have been fulfilled for you, so the Lord will bring upon you all the evil things, until he has destroyed you from off this good land that the Lord your God has given you,</t>
+          <t>The z Gershonites received by lot from the clans of the tribe of Issachar, from the tribe of Asher, from the tribe of Naphtali, and from the half-tribe of Manasseh in Bashan, thirteen cities.</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Joshua 23:16</t>
+          <t>Joshua 21:7</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>if you transgress the cov173 enant of the Lord your God, which he commanded you, and go and serve other gods and bow down to them. Then the anger of the Lord will be kindled against you, and you shall perish quickly from off the good land that he has given to you. The Covenant Renewal at Shechem</t>
+          <t>The a Merarites according to their clans received from the tribe of Reuben, the tribe of Gad, and the tribe of Zebulun, twelve cities.</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Joshua 24:1</t>
+          <t>Joshua 21:8</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Joshua gathered all the tribes of Israel to Shechem and summoned the elders, the heads, the judges, and the officers of Israel. And they presented themselves before God. 2</t>
+          <t>These cities and their pasturelands the people of Israel b gave by lot to the Levites, c as the Lord had commanded through Moses.</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Joshua 24:2</t>
+          <t>Joshua 21:9</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>And Joshua said to all the people, Thus says the Lord , the God of Israel, Long ago, your fathers lived beyond the Euphrates, Terah, the father of Abraham and of Nahor; and they served other gods. 3</t>
+          <t>Out of the tribe of the people of Judah and the tribe of the people of Simeon they gave the following cities mentioned by name,</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Joshua 24:4</t>
+          <t>Joshua 21:10</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>And to Isaac I gave Jacob and Esau. And I gave Esau the hill country of Seir to possess, but Jacob and his children went down to Egypt. 5</t>
+          <t>which went to d the descendants of Aaron, one of the clans of the Kohathites who belonged to the people of Levi; since the lot fell to them first.</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Joshua 24:6</t>
+          <t>Joshua 21:11</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Then I rought your fathers out of Egypt, and you came to the sea. And the Egyptians pursued your fathers with chariots and horsemen to the Red Sea. 7</t>
+          <t>e They gave them f Kiriath-arba, that is Hebron, g in the hill country of Judah, along with the pasturelands around it.</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Joshua 24:8</t>
+          <t>Joshua 21:12</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Then I brought you to the land of the Amorites, who lived on the other side of the Jordan. They fought with you, and I gave them into your hand, and you took possession of their land, and I destroyed them before you. 9</t>
+          <t>But the fields of the city and its villages had been given to Caleb the son of Jephunneh as his possession.</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Joshua 24:12</t>
+          <t>Joshua 21:13</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>And I sent the hornet before you, which drove them out before you, the two kings of the Amorites; it was not by your sword or by your bow.</t>
+          <t>And to the descendants of Aaron the priest they gave Hebron, h the city of refuge for the manslayer, with its pasturelands, i Libnah with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Joshua 24:13</t>
+          <t>Joshua 21:14</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>I gave you a land on which you had not labored and cities that you had not built, and you dwell in them. You eat the fruit of vineyards and olive orchards that you did not plant. Choose Whom You Will Serve</t>
+          <t>Jattir with its pasturelands, Eshtemoa with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Joshua 24:16</t>
+          <t>Joshua 21:15</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Then the people answered, Far be it from us that we should forsake the Lord to serve other gods,</t>
+          <t>Holon with its pasturelands, Debir with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Joshua 24:17</t>
+          <t>Joshua 21:16</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>for it is the Lord our God who brought us and our fathers up from the land of Egypt, out of the house of slavery, and who did those great signs in our sight and preserved us in all the way that we went, and among all the peoples through whom we passed.</t>
+          <t>Ain with its pasturelands, Juttah with its pasturelands, Beth-shemesh with its pastureland s nine cities out of these two tribes;</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Joshua 24:18</t>
+          <t>Joshua 21:17</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>And the Lord drove out before us all the peoples, the Amorites who lived in the land. Therefore we also will serve the Lord , for he is our God.</t>
+          <t>then out of the tribe of Benjamin, j Gibeon with its pasturelands, Geba with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Joshua 24:19</t>
+          <t>Joshua 21:18</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>But Joshua said to the people, You are not able to serve the Lord , for he is a holy God. He is a jealous God; he will not forgive your transgressions or your sins.</t>
+          <t>Anathoth with its pasturelands, and Almon with its pastureland s four cities.</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Joshua 24:21</t>
+          <t>Joshua 21:19</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>And the people said to Joshua, No, but we will serve the Lord .</t>
+          <t>The cities of the descendants of Aaron, the priests, were in all thirteen cities with their pasturelands.</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Joshua 24:22</t>
+          <t>Joshua 21:20</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Then Joshua said to the people, You are witnesses against yourselves that you have chosen the Lord , to serve him. And they said, We are witnesses.</t>
+          <t>k As to the rest of the Kohathites belonging to the Kohathite clans of the Levites, the cities allotted to them were out of the tribe of Ephraim.</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Joshua 24:23</t>
+          <t>Joshua 21:21</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>He said, Then put away the foreign gods that are among you, and incline your heart to the Lord , the God of Israel.</t>
+          <t>To them were given Shechem, l the city of refuge for the manslayer, with its pasturelands in the hill country of Ephraim, Gezer with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Joshua 24:24</t>
+          <t>Joshua 21:22</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>And the people said to Joshua, The Lord our God we will serve, and his voice we will obey.</t>
+          <t>Kibzaim with its pasturelands, Beth-horon with its pastureland s four cities;</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Joshua 24:25</t>
+          <t>Joshua 21:23</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>So Joshua made a cov173 enant with the people that day, and put in place statutes and rules for them at Shechem.</t>
+          <t>and out of the tribe of Dan, Elteke with its pasturelands, Gibbethon with its pasturelands,</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Joshua 24:26</t>
+          <t>Joshua 21:24</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>And Joshua wrote these words in the Book of the Law of God. And he took a large stone and set it up there under the terebinth that was by the sanctuary of the Lord .</t>
+          <t>Aijalon with its pasturelands, Gath-rimmon with its pastureland s four cities;</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Joshua 24:27</t>
+          <t>Joshua 21:25</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>And Joshua said to all the people, Behold, this stone shall be a witness against us, for it has heard all the words of the Lord that he spoke to us. Therefore it shall be a witness against you, lest you deal falsely with your God.</t>
+          <t>and out of the half-tribe of Manasseh, Taanach with its pasturelands, and Gath-rimmon with its pastureland s two cities.</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Joshua 24:28</t>
+          <t>Joshua 21:26</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>So Joshua sent the people away, every man to his inheritance. Joshua's Death and Burial</t>
+          <t>The cities of the clans of the rest of the Kohathites were ten in all with their pasturelands.</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Joshua 24:30</t>
+          <t>Joshua 21:27</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>And they buried him in his own inheritance at Timnath- serah, which is in the hill country of Ephraim, north of the mountain of Gaash.</t>
+          <t>m And to the Gershonites, one of the clans of the Levites, were given out of the half-tribe of Manasseh, Golan in Bashan with its pasturelands, l the city of refuge for the manslayer, and Beeshterah with its pastureland s two cities;</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
+          <t>Joshua 21:28</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>and out of the tribe of Issachar, Kishion with its pasturelands, Daberath with its pasturelands,</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Joshua 21:29</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Jarmuth with its pasturelands, En-gannim with its pastureland s four cities;</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Joshua 21:30</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>and out of the tribe of Asher, Mishal with its pasturelands, Abdon with its pasturelands,</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Joshua 21:31</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Helkath with its pasturelands, and Rehob with its pastureland s four cities;</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Joshua 21:32</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>and out of the tribe of Naphtali, Kedesh in Galilee with its pasturelands, l the city of refuge for the manslayer, Hammoth-dor with its pasturelands, and Kartan with its pastureland s three cities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Joshua 21:33</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>The cities of the several clans of the Gershonites were in all thirteen cities with their pasturelands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Joshua 21:34</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>n And to the rest of the Levites, the Merarite clans, were given out of the tribe of Zebulun, Jokneam with its pasturelands, Kartah with its pasturelands,</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Joshua 21:35</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Dimnah with its pasturelands, Nahalal with its pastureland s four cities;</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Joshua 21:36</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>and out of the tribe of Reuben, o Bezer with its pasturelands, Jahaz with its pasturelands,</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Joshua 21:37</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Kedemoth with its pasturelands, and Mephaath with its pastureland s four cities;</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Joshua 21:38</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>and out of the tribe of Gad, o Ramoth in Gilead with its pasturelands, the city of refuge for the manslayer, p Mahanaim with its pasturelands,</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Joshua 21:39</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>p Heshbon with its pasturelands, Jazer with its pastureland s four cities in all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Joshua 21:40</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>As for the cities of the several Merarite clans, that is, the remainder of the clans of the Levites, those allotted to them were in all twelve cities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Joshua 21:41</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>q The cities of the Levites in the midst of the possession of the people of Israel were in all forty-eight cities with their pasturelands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Joshua 21:42</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>These cities each had its pasturelands around it. So it was with all these cities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Joshua 21:43</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>r Thus the Lord gave to Israel all the land that he swore to give to their fathers. And they took possession of it, and they settled there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Joshua 21:44</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>s And the Lord gave them rest on every side just as he had sworn to their fathers. t Not one of all their enemies had withstood them, for u the Lord had given all their enemies into their hands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Joshua 21:45</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>v Not one word of all the good promises that the Lord had made to the house of Israel had failed; all came to pass. The Eastern Tribes Return Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Joshua 22:1</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>At that time Joshua summoned the Reubenites and the Gadites and the half-tribe of Manasseh,</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Joshua 22:2</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>and said to them, You have kept w all that Moses the servant of the Lord commanded you x and have obeyed my voice in all that I have commanded you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Joshua 22:3</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>You have not forsaken your brothers these many days, down to this day, but have been careful to keep the charge of the Lord your God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Joshua 22:4</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>y And now the Lord your God has given rest to your brothers, as he promised them. Therefore turn and go to your tents in the land where your possession lies, z which Moses the servant of the Lord gave you on the other side of the Jordan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Joshua 22:5</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>a Only be very careful to observe the commandment and the law that Moses the servant of the Lord commanded you, b to love the Lord your God, and to walk in all his ways and to keep his commandments and to cling to him and to serve him with all your heart and with all your soul.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Joshua 22:6</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>So Joshua c blessed them and sent them away, and they went to their tents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Joshua 22:7</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Now to the one half of the tribe of Manasseh Moses had given a possession in Bashan, d but to the other half Joshua had given a possession beside their brothers in the land west of the Jordan. And when Joshua sent them away to their homes and blessed them,</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Joshua 22:8</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>he said to them, Go back to your tents with much wealth and with very much livestock, with silver, gold, bronze, and iron, and with much clothing. e Divide the spoil of your enemies with your brothers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Joshua 22:9</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>So the people of Reuben and the people of Gad and the half-tribe of Manasseh returned home, parting from the people of Israel at Shiloh, which is in the land of Canaan, to go f to the land of Gilead, their own land of which they had possessed themselves by command of the Lord through Moses. The Eastern Tribes Altar of Witness</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Joshua 22:10</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>And when they came to the region of the Jordan that is in the land of Canaan, the people of Reuben and the people of Gad and the half-tribe of Manasseh built there an altar by the Jordan, an altar of imposing size.</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Joshua 22:11</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>And the people of Israel g heard it said, Behold, the people of Reuben and the people of Gad and the half-tribe of Manasseh have built the altar at the frontier of the land of Canaan, in the region about the Jordan, on the side that belongs to the people of Israel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Joshua 22:12</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>And when the people of Israel heard of it, h the whole assembly of the people of Israel gathered at Shiloh to make war against them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Joshua 22:13</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Then the people of Israel sent to the people of Reuben and the people of Gad and the half-tribe of Manasseh, in the land of Gilead, i Phinehas the son of Eleazar the priest,</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Joshua 22:14</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>and with him ten chiefs, one from each of the tribal families of Israel, j every one of them the head of a family among the clans of Israel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Joshua 22:15</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>And they came to the people of Reuben, the people of Gad, and the half-tribe of Manasseh, in the land of Gilead, and they said to them,</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Joshua 22:16</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Thus says the whole congregation of the Lord, What is this breach of faith that you have committed against the God of Israel in turning away this day from following the Lord by building yourselves an altar this day k in rebellion against the Lord?</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Joshua 22:17</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Have we not had enough of l the sin at Peor from which even yet we have not cleansed ourselves, and for which there came a plague upon the congregation of the Lord,</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Joshua 22:18</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>that you too must turn away this day from following the Lord? And if k you too rebel against the Lord today then tomorrow m he will be angry with the whole congregation of Israel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Joshua 22:19</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>But now, if the land of your possession is unclean, pass over into the Lord s land n where the Lord s tabernacle stands, and take for yourselves a possession among us. o Only do not rebel against the Lord or make us as rebels by building for yourselves an altar other than the altar of the Lord our God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Joshua 22:20</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>p Did not Achan the son of Zerah break faith in the matter of the devoted things, and m wrath fell upon all the congregation of Israel? And he did not perish alone for his iniquity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Joshua 22:21</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Then the people of Reuben, the people of Gad, and the half-tribe of Manasseh said in answer to the heads of the families of Israel,</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Joshua 22:22</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>The Mighty One, q God, the Lord! The Mighty One, God, the Lord! r He knows; and let Israel itself know! If it was in rebellion or in breach of faith against the Lord, do not spare us today</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Joshua 22:23</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>for building an altar to turn away from following the Lord. Or if we did so to offer burnt offerings or grain offerings or peace offerings on it, may the Lord himself s take vengeance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Joshua 22:24</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>No, but we did it from fear that t in time to come your children might say to our children, What have you to do with the Lord, the God of Israel?</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Joshua 22:25</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>For the Lord has made the Jordan a boundary between us and you, you people of Reuben and people of Gad. You have no portion in the Lord. So your children might make our children cease to worship the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Joshua 22:26</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Therefore we said, Let us now build an altar, not for burnt offering, nor for sacrifice,</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Joshua 22:27</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>but to be u a witness between us and you, and between our generations after us, that we v do perform the service of the Lord in his presence with our burnt offerings and sacrifices and peace offerings, so your children will not say to our children in time to come, You have no portion in the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Joshua 22:28</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>And we thought, If this should be said to us or to our descendants in time to come, we should say, Behold, the copy of the altar of the Lord, which our fathers made, not for burnt offerings, nor for sacrifice, but to be u a witness between us and you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Joshua 22:29</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Far be it from us that we should w rebel against the Lord and turn away this day from following the Lord w by building an altar for burnt offering, grain offering, or sacrifice, other than the altar of the Lord our God that stands before his tabernacle!</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Joshua 22:30</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>When x Phinehas the priest and the chiefs of the congregation, the heads of the families of Israel who were with him, heard the words that the people of Reuben and the people of Gad and the people of Manasseh spoke, y it was good in their eyes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Joshua 22:31</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>And Phinehas the son of Eleazar the priest said to the people of Reuben and the people of Gad and the people of Manasseh, Today we know that z the Lord is in our midst, because you have not committed this breach of faith against the Lord. Now you have delivered the people of Israel from the hand of the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Joshua 22:32</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Then Phinehas the son of Eleazar the priest, and the chiefs, returned from the people of Reuben and the people of Gad a in the land of Gilead to the land of Canaan, to the people of Israel, and brought back word to them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Joshua 22:33</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>And the report b was good in the eyes of the people of Israel. And the people of Israel c blessed God and spoke no more of making war against them to destroy the land where the people of Reuben and the people of Gad were settled.</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Joshua 22:34</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>The people of Reuben and the people of Gad called the altar Witness, For, they said, d it is a witness between us that the Lord is God. Joshua s Charge to Israel s Leaders</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Joshua 23:1</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>A long time afterward, when the Lord had given e rest to Israel from all their surrounding enemies, and Joshua f was old and well advanced in years,</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Joshua 23:2</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Joshua g summoned all Israel, its elders and heads, its judges and officers, and said to them, I am now old and well advanced in years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Joshua 23:3</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>And you have seen all that the Lord your God has done to all these nations for your sake, h for it is the Lord your God who has fought for you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Joshua 23:4</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Behold, i I have allotted to you as an inheritance for your tribes those nations that remain, along with all the nations that I have already cut off, from the Jordan to the Great Sea in the west.</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Joshua 23:5</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>The Lord your God j will push them back before you and drive them out of your sight. And you shall possess their land, k just as the Lord your God promised you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Joshua 23:6</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Therefore, l be very strong to keep and to do all that is written in the Book of the Law of Moses, m turning aside from it neither to the right hand nor to the left,</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Joshua 23:7</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>n that you may not mix with these nations remaining among you o or make mention of the names of their gods p or swear by them or serve them or bow down to them,</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Joshua 23:8</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>q but you shall cling to the Lord your God just as you have done to this day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Joshua 23:9</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>r For the Lord has driven out before you great and strong nations. And as for you, s no man has been able to stand before you to this day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Joshua 23:10</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>t One man of you puts to flight a thousand, since it is the Lord your God u who fights for you, just as he promised you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Joshua 23:11</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>v Be very careful, therefore, to love the Lord your God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Joshua 23:12</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>For if you turn back and cling to the remnant of these nations remaining among you w and make marriages with them, so that you associate with them and they with you,</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Joshua 23:13</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>know for certain that x the Lord your God will no long?er drive out these nations before you, y but they shall be a snare and a trap for you, a whip on your sides and thorns in your eyes, until you perish from off this good ground that the Lord your God has given you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Joshua 23:14</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>And now z I am about to go the way of all the earth, and you know in your hearts and souls, all of you, that a not one word has failed of all the good things that the Lord your God promised concerning you. All have come to pass for you; not one of them has failed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Joshua 23:15</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>But just as all the good things that the Lord your God promised concerning you have been fulfilled for you, so the Lord will bring upon you b all the evil things, until he has destroyed you from off this good land that the Lord your God has given you,</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Joshua 23:16</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>if you transgress the cov?enant of the Lord your God, which he commanded you, and go and serve other gods and bow down to them. Then the anger of the Lord will be kindled against you, and you shall perish quickly from off the good land that he has given to you. The Covenant Renewal at Shechem</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Joshua 24:1</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Joshua gathered all the tribes of Israel c to Shechem and d summoned the elders, the heads, the judges, and the officers of Israel. And e they presented themselves before God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Joshua 24:2</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>And Joshua said to all the people, Thus says the Lord, the God of Israel, Long ago, f your fathers lived beyond the Euphrates, Terah, the father of Abraham and of Nahor; and g they served other gods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Joshua 24:3</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>h Then I took your father Abraham from beyond the Rive r and i led him through all the land of Canaan, and made his offspring many. j I gave him Isaac.</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Joshua 24:4</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>And to Isaac I gave k Jacob and Esau. l And I gave Esau the hill country of Seir to possess, m but Jacob and his children went down to Egypt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Joshua 24:5</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>n And I sent Moses and Aaron, o and I plagued Egypt with what I did in the midst of it, and p afterward I brought you out.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Joshua 24:6</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Then p I brought your fathers out of Egypt, and q you came to the sea. r And the Egyptians pursued your fathers with chariots and horsemen to the Red Sea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Joshua 24:7</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>s And when they cried to the Lord, t he put darkness between you and the Egyptians u and made the sea come upon them and cover them; v and your eyes saw what I did in Egypt. w And you lived in the wilderness a long time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Joshua 24:8</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Then I brought you to the land of the Amorites, who lived on the other side of the Jordan. x They fought with you, and I gave them into your hand, and you took possession of their land, and I destroyed them before you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Joshua 24:9</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>y Then Balak the son of Zippor, king of Moab, arose and fought against Israel. z And he sent and invited Balaam the son of Beor to curse you,</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Joshua 24:10</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>a but I would not listen to Balaam. a Indeed, he blessed you. So I delivered you out of his hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Joshua 24:11</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>b And you went over the Jordan and came to Jericho, c and the leaders of Jericho fought against you, and also c the Amorites, the Perizzites, the Canaanites, the Hittites, the Girgashites, the Hivites, and the Jebusites. And I gave them into your hand.</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Joshua 24:12</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>And I sent d the hornet before you, which drove them out before you, the two kings of the Amorites; it was e not by your sword or by your bow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Joshua 24:13</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>I gave you a land on which you had not labored f and cities that you had not built, and you dwell in them. You eat the fruit of vineyards and olive orchards that you did not plant. Choose Whom You Will Serve</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Joshua 24:14</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>g Now therefore fear the Lord and serve him in sincerity and in faithfulness. h Put away the gods that your fathers served beyond the River and in Egypt, and serve the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Joshua 24:15</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>i And if it is evil in your eyes to serve the Lord, j choose this day whom you will serve, whether h the gods your fathers served in the region beyond the River, or k the gods of the Amorites in whose land you dwell. l But as for me and my house, we will serve the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Joshua 24:16</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Then the people answered, Far be it from us that we should forsake the Lord to serve other gods,</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Joshua 24:17</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>for it is the Lord our God who brought us and our fathers up from the land of Egypt, out of the house of slavery, and who did those great signs in our sight and preserved us in all the way that we went, and among all the peoples through whom we passed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Joshua 24:18</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>And the Lord drove out before us all the peoples, the Amorites who lived in the land. Therefore we also will serve the Lord, for he is our God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Joshua 24:19</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>But Joshua said to the people, You are not able to serve the Lord, for he is m a holy God. He is n a jealous God; o he will not forgive your transgressions or your sins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Joshua 24:20</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>p If you forsake the Lord and serve foreign gods, then q he will turn and do you harm and consume you, after having done you good.</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Joshua 24:21</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>And the people said to Joshua, No, but we will serve the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Joshua 24:22</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Then Joshua said to the people, You are witnesses against yourselves that r you have chosen the Lord, to serve him. And they said, We are witnesses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Joshua 24:23</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>He said, Then s put away the foreign gods that are among you, and incline your heart to the Lord, the God of Israel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Joshua 24:24</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>And the people said to Joshua, The Lord our God we will serve, and his voice we will obey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Joshua 24:25</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>So Joshua t made a cov?enant with the people that day, and put in place u statutes and rules for them at Shechem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Joshua 24:26</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>And Joshua v wrote these words in the Book of the Law of God. And w he took a large stone and set it up there x under the terebinth that was by the sanctuary of the Lord.</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Joshua 24:27</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>And Joshua said to all the people, Behold, y this stone shall be a witness against us, for z it has heard all the words of the Lord that he spoke to us. Therefore it shall be a witness against you, lest you deal falsely with your God.</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Joshua 24:28</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>So Joshua a sent the people away, every man to his inheritance. Joshua s Death and Burial</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Joshua 24:29</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>b After these things Joshua the son of Nun, the servant of the Lord, died, being years old.</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Joshua 24:30</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>And they buried him in his own inheritance at c Timnath-serah, which is in the hill country of Ephraim, north of the mountain of Gaash.</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Joshua 24:31</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>d Israel served the Lord all the days of Joshua, and all the days of the elders who outlived Joshua e and had known all the work that the Lord did for Israel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Joshua 24:32</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>f As for the bones of Joseph, which the people of Israel brought up from Egypt, they buried them at Shechem, in the piece of land g that Jacob bought from the sons of Hamor the father of Shechem for a hundred pieces of money. It became an inheritance of the descendants of Joseph.</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
           <t>Joshua 24:33</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>And Eleazar the son of Aaron died, and they buried him at Gibeah, the town of Phinehas his son, which had been given him in the hill country of Ephraim.</t>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>And Eleazar the son of Aaron died, and they buried him at Gibeah, the town of h Phinehas his son, which had been given him in i the hill country of Ephraim.</t>
         </is>
       </c>
     </row>
